--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Save_Back_Front_Navi.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Save_Back_Front_Navi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27465" windowHeight="13650"/>
+    <workbookView windowWidth="27465" windowHeight="13230"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -111,7 +111,7 @@
     <t>FIRST_NAME_FIELD</t>
   </si>
   <si>
-    <t>_Fname</t>
+    <t>Fname</t>
   </si>
   <si>
     <t>Enter First name</t>
@@ -123,7 +123,7 @@
     <t>LAST_NAME_FIELD</t>
   </si>
   <si>
-    <t>_Lname</t>
+    <t>Lname</t>
   </si>
   <si>
     <t>Enter last name</t>
@@ -150,15 +150,15 @@
     <t>Click on search button</t>
   </si>
   <si>
+    <t>CREATE_APP_LINK</t>
+  </si>
+  <si>
+    <t>Click on create application</t>
+  </si>
+  <si>
     <t>Wait for page to load</t>
   </si>
   <si>
-    <t>CREATE_APP_LINK</t>
-  </si>
-  <si>
-    <t>Click on create application</t>
-  </si>
-  <si>
     <t>SelectByVisibleText</t>
   </si>
   <si>
@@ -234,7 +234,7 @@
     <t>PATIENT_MIDDLE_NAME</t>
   </si>
   <si>
-    <t>_Mname</t>
+    <t>Mname</t>
   </si>
   <si>
     <t>APP_GENDER</t>
@@ -1166,10 +1166,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1220,16 +1220,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1244,7 +1243,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1259,13 +1274,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -1273,7 +1281,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1281,7 +1289,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1296,45 +1304,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1350,9 +1327,32 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1377,25 +1377,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1413,7 +1431,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1425,19 +1521,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1449,19 +1545,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1473,91 +1557,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1610,15 +1610,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1630,6 +1621,54 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1649,21 +1688,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1678,45 +1702,21 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1728,134 +1728,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1871,7 +1871,6 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2299,13 +2298,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q145"/>
+  <dimension ref="A1:H143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A118" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="8.57142857142857" style="4" customWidth="1"/>
     <col min="2" max="2" width="24.2857142857143" style="4" customWidth="1"/>
@@ -2382,7 +2381,7 @@
       </c>
       <c r="H3" s="10"/>
     </row>
-    <row r="4" spans="1:17">
+    <row r="4" spans="1:8">
       <c r="A4" s="10">
         <v>3</v>
       </c>
@@ -2403,16 +2402,8 @@
         <v>18</v>
       </c>
       <c r="H4" s="10"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-    </row>
-    <row r="5" spans="1:17">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="7">
         <v>4</v>
       </c>
@@ -2433,16 +2424,8 @@
         <v>23</v>
       </c>
       <c r="H5" s="8"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-    </row>
-    <row r="6" spans="1:17">
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="9">
         <v>5</v>
       </c>
@@ -2457,16 +2440,8 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-    </row>
-    <row r="7" spans="1:17">
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="10">
         <v>6</v>
       </c>
@@ -2489,16 +2464,8 @@
         <v>28</v>
       </c>
       <c r="H7" s="8"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-    </row>
-    <row r="8" spans="1:17">
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="7">
         <v>7</v>
       </c>
@@ -2521,16 +2488,8 @@
         <v>32</v>
       </c>
       <c r="H8" s="10"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-    </row>
-    <row r="9" spans="1:17">
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="9">
         <v>8</v>
       </c>
@@ -2551,16 +2510,8 @@
         <v>35</v>
       </c>
       <c r="H9" s="8"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-    </row>
-    <row r="10" spans="1:17">
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="10">
         <v>9</v>
       </c>
@@ -2577,17 +2528,9 @@
       <c r="F10" s="10"/>
       <c r="G10" s="10"/>
       <c r="H10" s="10"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-    </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="7">
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="10">
         <v>10</v>
       </c>
       <c r="B11" s="8" t="s">
@@ -2601,17 +2544,9 @@
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
       <c r="H11" s="8"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-    </row>
-    <row r="12" spans="1:17">
-      <c r="A12" s="9">
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="10">
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
@@ -2631,16 +2566,8 @@
         <v>23</v>
       </c>
       <c r="H12" s="8"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
-      <c r="M12" s="15"/>
-      <c r="N12" s="15"/>
-      <c r="O12" s="15"/>
-      <c r="P12" s="15"/>
-      <c r="Q12" s="15"/>
-    </row>
-    <row r="13" spans="1:17">
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="10">
         <v>12</v>
       </c>
@@ -2655,17 +2582,9 @@
       <c r="F13" s="8"/>
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
-      <c r="N13" s="15"/>
-      <c r="O13" s="15"/>
-      <c r="P13" s="15"/>
-      <c r="Q13" s="15"/>
-    </row>
-    <row r="14" spans="1:17">
-      <c r="A14" s="7">
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="10">
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
@@ -2675,27 +2594,19 @@
         <v>20</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H14" s="8"/>
-      <c r="J14" s="15"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
-      <c r="N14" s="15"/>
-      <c r="O14" s="15"/>
-      <c r="P14" s="15"/>
-      <c r="Q14" s="15"/>
-    </row>
-    <row r="15" spans="1:17">
-      <c r="A15" s="9">
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="10">
         <v>14</v>
       </c>
       <c r="B15" s="8" t="s">
@@ -2704,103 +2615,77 @@
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>13</v>
       </c>
       <c r="H15" s="8"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-    </row>
-    <row r="16" spans="1:17">
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="10">
         <v>15</v>
       </c>
-      <c r="B16" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>35</v>
+      <c r="B16" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G16" s="8" t="s">
+        <v>46</v>
       </c>
       <c r="H16" s="8"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
-      <c r="N16" s="15"/>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
-    </row>
-    <row r="17" spans="1:17">
-      <c r="A17" s="7">
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="10">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8">
-        <v>5</v>
-      </c>
-      <c r="F17" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="G17" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="8"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15"/>
-      <c r="M17" s="15"/>
-      <c r="N17" s="15"/>
-      <c r="O17" s="15"/>
-      <c r="P17" s="15"/>
-      <c r="Q17" s="15"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="14">
+        <v>2</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="9">
+      <c r="A18" s="10">
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C18" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>44</v>
+        <v>48</v>
+      </c>
+      <c r="E18" s="8">
+        <v>2</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="G18" s="8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="H18" s="8"/>
     </row>
@@ -2809,62 +2694,66 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="10"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="14">
-        <v>2</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
+        <v>47</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E19" s="10">
+        <v>1000</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="H19" s="10"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="7">
+      <c r="A20" s="10">
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E20" s="8">
-        <v>2</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="E20" s="8"/>
       <c r="F20" s="8" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="G20" s="8" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="H20" s="8"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="9">
+      <c r="A21" s="10">
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C21" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="E21" s="10">
-        <v>1000</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="E21" s="10"/>
       <c r="F21" s="10" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="H21" s="10"/>
     </row>
@@ -2879,7 +2768,7 @@
         <v>20</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8" t="s">
@@ -2891,29 +2780,31 @@
       <c r="H22" s="8"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="7">
+      <c r="A23" s="10">
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="10"/>
+        <v>59</v>
+      </c>
+      <c r="E23" s="10">
+        <v>10001</v>
+      </c>
       <c r="F23" s="10" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="H23" s="10"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="9">
+      <c r="A24" s="10">
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -2922,15 +2813,15 @@
       <c r="C24" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D24" s="11" t="s">
-        <v>58</v>
+      <c r="D24" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="G24" s="8" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="H24" s="8"/>
     </row>
@@ -2939,64 +2830,62 @@
         <v>24</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C25" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="10"/>
+      <c r="D25" s="10"/>
+      <c r="E25" s="10">
+        <v>5</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="H25" s="10"/>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="E25" s="10">
-        <v>10001</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="H25" s="10"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="7">
-        <v>25</v>
-      </c>
-      <c r="B26" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C26" s="8" t="s">
+      <c r="D26" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="10">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D26" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="G26" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="9">
-        <v>26</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10">
-        <v>5</v>
+      <c r="D27" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>69</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>39</v>
+        <v>70</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
       <c r="H27" s="10"/>
     </row>
@@ -3005,23 +2894,27 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="11" t="s">
-        <v>66</v>
+        <v>20</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>72</v>
       </c>
       <c r="E28" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
+        <v>73</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>75</v>
+      </c>
       <c r="H28" s="8"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="7">
+      <c r="A29" s="10">
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
@@ -3031,21 +2924,21 @@
         <v>20</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="H29" s="10"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="9">
+      <c r="A30" s="10">
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
@@ -3055,16 +2948,16 @@
         <v>20</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="E30" s="8" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="H30" s="8"/>
     </row>
@@ -3079,64 +2972,60 @@
         <v>20</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>79</v>
+        <v>86</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>87</v>
       </c>
       <c r="H31" s="10"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="7">
+      <c r="A32" s="10">
         <v>31</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C32" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="E32" s="8" t="s">
-        <v>81</v>
-      </c>
+      <c r="D32" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="8"/>
       <c r="F32" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="G32" s="8" t="s">
-        <v>83</v>
+        <v>88</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>56</v>
       </c>
       <c r="H32" s="8"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="9">
+      <c r="A33" s="10">
         <v>32</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="E33" s="10" t="s">
-        <v>85</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E33" s="10"/>
       <c r="F33" s="10" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H33" s="10"/>
     </row>
@@ -3145,62 +3034,64 @@
         <v>33</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C34" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="11"/>
+      <c r="E34" s="8">
+        <v>5</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H34" s="8"/>
+    </row>
+    <row r="35" spans="1:8">
+      <c r="A35" s="10">
+        <v>34</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="8"/>
-      <c r="F34" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H34" s="8"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="7">
-        <v>34</v>
-      </c>
-      <c r="B35" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C35" s="10" t="s">
+      <c r="D35" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H35" s="10"/>
+    </row>
+    <row r="36" spans="1:8">
+      <c r="A36" s="10">
+        <v>35</v>
+      </c>
+      <c r="B36" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C36" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="H35" s="10"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="9">
-        <v>35</v>
-      </c>
-      <c r="B36" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="11"/>
-      <c r="E36" s="8">
-        <v>5</v>
-      </c>
+      <c r="D36" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="E36" s="8"/>
       <c r="F36" s="8" t="s">
-        <v>12</v>
+        <v>97</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>13</v>
+        <v>98</v>
       </c>
       <c r="H36" s="8"/>
     </row>
@@ -3208,69 +3099,71 @@
       <c r="A37" s="10">
         <v>36</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="C37" s="10" t="s">
+      <c r="C37" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D37" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="H37" s="10"/>
+      <c r="D37" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E37" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H37" s="8"/>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="7">
+      <c r="A38" s="10">
         <v>37</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C38" s="8" t="s">
+      <c r="B38" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C38" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D38" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E38" s="8"/>
-      <c r="F38" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="G38" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="H38" s="8"/>
+      <c r="D38" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="H38" s="10"/>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="9">
+      <c r="A39" s="10">
         <v>38</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E39" s="8" t="s">
-        <v>100</v>
+        <v>107</v>
+      </c>
+      <c r="E39" s="8">
+        <v>10001</v>
       </c>
       <c r="F39" s="8" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>102</v>
+        <v>61</v>
       </c>
       <c r="H39" s="8"/>
     </row>
@@ -3285,45 +3178,41 @@
         <v>15</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G40" s="9" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="H40" s="10"/>
     </row>
     <row r="41" spans="1:8">
-      <c r="A41" s="7">
+      <c r="A41" s="10">
         <v>40</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="E41" s="8">
-        <v>10001</v>
-      </c>
-      <c r="F41" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>61</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="E41" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41" s="8"/>
+      <c r="G41" s="7"/>
       <c r="H41" s="8"/>
     </row>
     <row r="42" spans="1:8">
-      <c r="A42" s="9">
+      <c r="A42" s="10">
         <v>41</v>
       </c>
       <c r="B42" s="10" t="s">
@@ -3333,17 +3222,13 @@
         <v>15</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>111</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="E42" s="10">
+        <v>9876543210</v>
+      </c>
+      <c r="F42" s="10"/>
+      <c r="G42" s="9"/>
       <c r="H42" s="10"/>
     </row>
     <row r="43" spans="1:8">
@@ -3357,53 +3242,55 @@
         <v>20</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="E43" s="8" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="7"/>
       <c r="H43" s="8"/>
     </row>
     <row r="44" spans="1:8">
-      <c r="A44" s="7">
+      <c r="A44" s="10">
         <v>43</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="E44" s="10">
-        <v>9876543210</v>
-      </c>
-      <c r="F44" s="10"/>
-      <c r="G44" s="9"/>
+        <v>89</v>
+      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>91</v>
+      </c>
       <c r="H44" s="10"/>
     </row>
     <row r="45" spans="1:8">
-      <c r="A45" s="9">
+      <c r="A45" s="10">
         <v>44</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C45" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E45" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="F45" s="8"/>
-      <c r="G45" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="8">
+        <v>4</v>
+      </c>
+      <c r="F45" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="H45" s="8"/>
     </row>
     <row r="46" spans="1:8">
@@ -3414,54 +3301,50 @@
         <v>19</v>
       </c>
       <c r="C46" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D46" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="10"/>
+    </row>
+    <row r="47" spans="1:8">
+      <c r="A47" s="10">
+        <v>46</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C47" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D47" s="11" t="s">
         <v>89</v>
       </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10" t="s">
+      <c r="E47" s="8"/>
+      <c r="F47" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="G47" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H46" s="10"/>
-    </row>
-    <row r="47" spans="1:8">
-      <c r="A47" s="7">
-        <v>46</v>
-      </c>
-      <c r="B47" s="8" t="s">
+      <c r="H47" s="8"/>
+    </row>
+    <row r="48" spans="1:8">
+      <c r="A48" s="10">
+        <v>47</v>
+      </c>
+      <c r="B48" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C47" s="8"/>
-      <c r="D47" s="11"/>
-      <c r="E47" s="8">
+      <c r="C48" s="10"/>
+      <c r="D48" s="10"/>
+      <c r="E48" s="10">
         <v>4</v>
       </c>
-      <c r="F47" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H47" s="8"/>
-    </row>
-    <row r="48" spans="1:8">
-      <c r="A48" s="9">
-        <v>47</v>
-      </c>
-      <c r="B48" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E48" s="10"/>
       <c r="F48" s="10"/>
       <c r="G48" s="9"/>
       <c r="H48" s="10"/>
@@ -3477,19 +3360,19 @@
         <v>15</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="E49" s="8"/>
       <c r="F49" s="8" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="H49" s="8"/>
     </row>
     <row r="50" spans="1:8">
-      <c r="A50" s="7">
+      <c r="A50" s="10">
         <v>49</v>
       </c>
       <c r="B50" s="10" t="s">
@@ -3505,24 +3388,24 @@
       <c r="H50" s="10"/>
     </row>
     <row r="51" spans="1:8">
-      <c r="A51" s="9">
+      <c r="A51" s="10">
         <v>50</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>19</v>
+        <v>121</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E51" s="8"/>
       <c r="F51" s="8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="H51" s="8"/>
     </row>
@@ -3531,41 +3414,37 @@
         <v>51</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C52" s="10"/>
-      <c r="D52" s="10"/>
-      <c r="E52" s="10">
-        <v>4</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D52" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="E52" s="10"/>
       <c r="F52" s="10"/>
       <c r="G52" s="9"/>
       <c r="H52" s="10"/>
     </row>
     <row r="53" spans="1:8">
-      <c r="A53" s="7">
+      <c r="A53" s="10">
         <v>52</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D53" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E53" s="8"/>
-      <c r="F53" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="G53" s="7" t="s">
-        <v>123</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="11"/>
+      <c r="E53" s="8">
+        <v>1</v>
+      </c>
+      <c r="F53" s="8"/>
+      <c r="G53" s="7"/>
       <c r="H53" s="8"/>
     </row>
     <row r="54" spans="1:8">
-      <c r="A54" s="9">
+      <c r="A54" s="10">
         <v>53</v>
       </c>
       <c r="B54" s="10" t="s">
@@ -3587,56 +3466,70 @@
         <v>54</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C55" s="8"/>
-      <c r="D55" s="11"/>
-      <c r="E55" s="8">
-        <v>1</v>
-      </c>
-      <c r="F55" s="8"/>
-      <c r="G55" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D55" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E55" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="F55" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="H55" s="8"/>
     </row>
     <row r="56" spans="1:8">
-      <c r="A56" s="7">
+      <c r="A56" s="10">
         <v>55</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="C56" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D56" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H56" s="10"/>
+    </row>
+    <row r="57" spans="1:8">
+      <c r="A57" s="10">
+        <v>56</v>
+      </c>
+      <c r="B57" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D56" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E56" s="10"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="9"/>
-      <c r="H56" s="10"/>
-    </row>
-    <row r="57" spans="1:8">
-      <c r="A57" s="9">
-        <v>56</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>15</v>
-      </c>
       <c r="D57" s="11" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="E57" s="8" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="F57" s="8" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>28</v>
+        <v>134</v>
       </c>
       <c r="H57" s="8"/>
     </row>
@@ -3651,21 +3544,21 @@
         <v>15</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>32</v>
+        <v>138</v>
       </c>
       <c r="H58" s="10"/>
     </row>
     <row r="59" spans="1:8">
-      <c r="A59" s="7">
+      <c r="A59" s="10">
         <v>58</v>
       </c>
       <c r="B59" s="8" t="s">
@@ -3675,40 +3568,40 @@
         <v>20</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E59" s="8" t="s">
-        <v>132</v>
+        <v>100</v>
       </c>
       <c r="F59" s="8" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>134</v>
+        <v>102</v>
       </c>
       <c r="H59" s="8"/>
     </row>
     <row r="60" spans="1:8">
-      <c r="A60" s="9">
+      <c r="A60" s="10">
         <v>59</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C60" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>136</v>
+        <v>104</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G60" s="9" t="s">
-        <v>138</v>
+        <v>106</v>
       </c>
       <c r="H60" s="10"/>
     </row>
@@ -3717,27 +3610,27 @@
         <v>60</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>100</v>
+        <v>143</v>
+      </c>
+      <c r="E61" s="8">
+        <v>10001</v>
       </c>
       <c r="F61" s="8" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>102</v>
+        <v>145</v>
       </c>
       <c r="H61" s="8"/>
     </row>
     <row r="62" spans="1:8">
-      <c r="A62" s="7">
+      <c r="A62" s="10">
         <v>61</v>
       </c>
       <c r="B62" s="10" t="s">
@@ -3747,41 +3640,35 @@
         <v>15</v>
       </c>
       <c r="D62" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>104</v>
+        <v>146</v>
+      </c>
+      <c r="E62" s="10">
+        <v>9789123456</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G62" s="9" t="s">
-        <v>106</v>
+        <v>148</v>
       </c>
       <c r="H62" s="10"/>
     </row>
     <row r="63" spans="1:8">
-      <c r="A63" s="9">
+      <c r="A63" s="10">
         <v>62</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="C63" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E63" s="8">
-        <v>10001</v>
-      </c>
-      <c r="F63" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="G63" s="7" t="s">
-        <v>145</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="E63" s="8"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="7"/>
       <c r="H63" s="8"/>
     </row>
     <row r="64" spans="1:8">
@@ -3789,68 +3676,68 @@
         <v>63</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="C64" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D64" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E64" s="10">
-        <v>9789123456</v>
+        <v>150</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>151</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="G64" s="9" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="H64" s="10"/>
     </row>
     <row r="65" spans="1:8">
-      <c r="A65" s="7">
+      <c r="A65" s="10">
         <v>64</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>149</v>
+        <v>19</v>
       </c>
       <c r="C65" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>150</v>
+        <v>89</v>
       </c>
       <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-      <c r="G65" s="7"/>
+      <c r="F65" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>91</v>
+      </c>
       <c r="H65" s="8"/>
     </row>
     <row r="66" spans="1:8">
-      <c r="A66" s="9">
+      <c r="A66" s="10">
         <v>65</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C66" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D66" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="E66" s="10" t="s">
-        <v>151</v>
+        <v>11</v>
+      </c>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10"/>
+      <c r="E66" s="10">
+        <v>4</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="G66" s="9" t="s">
-        <v>153</v>
+        <v>13</v>
       </c>
       <c r="H66" s="10"/>
     </row>
-    <row r="67" spans="1:8">
+    <row r="67" s="4" customFormat="1" spans="1:8">
       <c r="A67" s="10">
         <v>66</v>
       </c>
@@ -3861,19 +3748,19 @@
         <v>15</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="E67" s="8"/>
       <c r="F67" s="8" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="H67" s="8"/>
     </row>
-    <row r="68" spans="1:8">
-      <c r="A68" s="7">
+    <row r="68" s="4" customFormat="1" spans="1:8">
+      <c r="A68" s="10">
         <v>67</v>
       </c>
       <c r="B68" s="10" t="s">
@@ -3884,16 +3771,12 @@
       <c r="E68" s="10">
         <v>4</v>
       </c>
-      <c r="F68" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G68" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="F68" s="10"/>
+      <c r="G68" s="9"/>
       <c r="H68" s="10"/>
     </row>
     <row r="69" s="4" customFormat="1" spans="1:8">
-      <c r="A69" s="9">
+      <c r="A69" s="10">
         <v>68</v>
       </c>
       <c r="B69" s="8" t="s">
@@ -3903,14 +3786,14 @@
         <v>15</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="E69" s="8"/>
       <c r="F69" s="8" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="H69" s="8"/>
     </row>
@@ -3924,36 +3807,42 @@
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10">
-        <v>4</v>
-      </c>
-      <c r="F70" s="10"/>
-      <c r="G70" s="9"/>
+        <v>5</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="H70" s="10"/>
     </row>
-    <row r="71" s="4" customFormat="1" spans="1:8">
-      <c r="A71" s="7">
+    <row r="71" spans="1:8">
+      <c r="A71" s="10">
         <v>70</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E71" s="8"/>
+        <v>154</v>
+      </c>
+      <c r="E71" s="8" t="s">
+        <v>155</v>
+      </c>
       <c r="F71" s="8" t="s">
-        <v>90</v>
+        <v>156</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>91</v>
+        <v>157</v>
       </c>
       <c r="H71" s="8"/>
     </row>
-    <row r="72" s="4" customFormat="1" spans="1:8">
-      <c r="A72" s="9">
+    <row r="72" spans="1:8">
+      <c r="A72" s="10">
         <v>71</v>
       </c>
       <c r="B72" s="10" t="s">
@@ -3964,12 +3853,8 @@
       <c r="E72" s="10">
         <v>5</v>
       </c>
-      <c r="F72" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G72" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="F72" s="10"/>
+      <c r="G72" s="9"/>
       <c r="H72" s="10"/>
     </row>
     <row r="73" spans="1:8">
@@ -3977,56 +3862,64 @@
         <v>72</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C73" s="8" t="s">
+        <v>158</v>
+      </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="11"/>
+      <c r="E73" s="8"/>
+      <c r="F73" s="8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H73" s="8"/>
+    </row>
+    <row r="74" spans="1:8">
+      <c r="A74" s="10">
+        <v>73</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C74" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D73" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E73" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="F73" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G73" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H73" s="8"/>
-    </row>
-    <row r="74" spans="1:8">
-      <c r="A74" s="7">
-        <v>73</v>
-      </c>
-      <c r="B74" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C74" s="10"/>
-      <c r="D74" s="10"/>
-      <c r="E74" s="10">
-        <v>5</v>
-      </c>
-      <c r="F74" s="10"/>
-      <c r="G74" s="9"/>
+      <c r="D74" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="E74" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>164</v>
+      </c>
       <c r="H74" s="10"/>
     </row>
     <row r="75" spans="1:8">
-      <c r="A75" s="9">
+      <c r="A75" s="10">
         <v>74</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C75" s="8"/>
-      <c r="D75" s="11"/>
-      <c r="E75" s="8"/>
+        <v>65</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="E75" s="8" t="s">
+        <v>166</v>
+      </c>
       <c r="F75" s="8" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="G75" s="7" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="H75" s="8"/>
     </row>
@@ -4041,21 +3934,21 @@
         <v>20</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="H76" s="10"/>
     </row>
     <row r="77" spans="1:8">
-      <c r="A77" s="7">
+      <c r="A77" s="10">
         <v>76</v>
       </c>
       <c r="B77" s="8" t="s">
@@ -4065,40 +3958,40 @@
         <v>15</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="E77" s="8" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="F77" s="8" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="G77" s="7" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="H77" s="8"/>
     </row>
     <row r="78" spans="1:8">
-      <c r="A78" s="9">
+      <c r="A78" s="10">
         <v>77</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="E78" s="10" t="s">
-        <v>170</v>
+        <v>176</v>
+      </c>
+      <c r="E78" s="10">
+        <v>1235647899</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>159</v>
+        <v>177</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="H78" s="10"/>
     </row>
@@ -4107,65 +4000,63 @@
         <v>78</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="C79" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D79" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E79" s="8"/>
+      <c r="F79" s="8"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="8"/>
+    </row>
+    <row r="80" spans="1:8">
+      <c r="A80" s="10">
+        <v>79</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="H80" s="10"/>
+    </row>
+    <row r="81" spans="1:8">
+      <c r="A81" s="10">
+        <v>80</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C81" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D79" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="E79" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="F79" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="G79" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="H79" s="8"/>
-    </row>
-    <row r="80" spans="1:8">
-      <c r="A80" s="7">
-        <v>79</v>
-      </c>
-      <c r="B80" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="E80" s="10">
-        <v>1235647899</v>
-      </c>
-      <c r="F80" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>178</v>
-      </c>
-      <c r="H80" s="10"/>
-    </row>
-    <row r="81" spans="1:8">
-      <c r="A81" s="9">
-        <v>80</v>
-      </c>
-      <c r="B81" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>20</v>
-      </c>
       <c r="D81" s="11" t="s">
-        <v>179</v>
-      </c>
-      <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-      <c r="G81" s="7"/>
+        <v>183</v>
+      </c>
+      <c r="E81" s="8">
+        <v>97890456789</v>
+      </c>
+      <c r="F81" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="G81" s="7" t="s">
+        <v>185</v>
+      </c>
       <c r="H81" s="8"/>
     </row>
     <row r="82" spans="1:8">
@@ -4179,60 +4070,62 @@
         <v>20</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="E82" s="10"/>
       <c r="F82" s="10" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="H82" s="10"/>
     </row>
     <row r="83" spans="1:8">
-      <c r="A83" s="7">
+      <c r="A83" s="10">
         <v>82</v>
       </c>
       <c r="B83" s="8" t="s">
         <v>47</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="E83" s="8">
-        <v>97890456789</v>
+        <v>1230</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="H83" s="8"/>
     </row>
     <row r="84" spans="1:8">
-      <c r="A84" s="9">
+      <c r="A84" s="10">
         <v>83</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C84" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="E84" s="10"/>
+        <v>192</v>
+      </c>
+      <c r="E84" s="10">
+        <v>1550</v>
+      </c>
       <c r="F84" s="10" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="H84" s="10"/>
     </row>
@@ -4241,19 +4134,17 @@
         <v>84</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C85" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>189</v>
-      </c>
-      <c r="E85" s="8">
-        <v>1230</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="E85" s="8"/>
       <c r="F85" s="8" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="G85" s="7" t="s">
         <v>191</v>
@@ -4261,31 +4152,29 @@
       <c r="H85" s="8"/>
     </row>
     <row r="86" spans="1:8">
-      <c r="A86" s="7">
+      <c r="A86" s="10">
         <v>85</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C86" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="E86" s="10">
-        <v>1550</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="E86" s="10"/>
       <c r="F86" s="10" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H86" s="10"/>
     </row>
     <row r="87" spans="1:8">
-      <c r="A87" s="9">
+      <c r="A87" s="10">
         <v>86</v>
       </c>
       <c r="B87" s="8" t="s">
@@ -4295,14 +4184,14 @@
         <v>20</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="E87" s="8"/>
       <c r="F87" s="8" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H87" s="8"/>
     </row>
@@ -4317,11 +4206,11 @@
         <v>20</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
       <c r="E88" s="10"/>
       <c r="F88" s="10" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
       <c r="G88" s="9" t="s">
         <v>198</v>
@@ -4329,46 +4218,44 @@
       <c r="H88" s="10"/>
     </row>
     <row r="89" spans="1:8">
-      <c r="A89" s="7">
+      <c r="A89" s="10">
         <v>88</v>
       </c>
       <c r="B89" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>199</v>
+        <v>89</v>
       </c>
       <c r="E89" s="8"/>
       <c r="F89" s="8" t="s">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="G89" s="7" t="s">
-        <v>198</v>
+        <v>91</v>
       </c>
       <c r="H89" s="8"/>
     </row>
     <row r="90" spans="1:8">
-      <c r="A90" s="9">
+      <c r="A90" s="10">
         <v>89</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C90" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D90" s="10" t="s">
-        <v>201</v>
-      </c>
-      <c r="E90" s="10"/>
+        <v>11</v>
+      </c>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10"/>
+      <c r="E90" s="10">
+        <v>4</v>
+      </c>
       <c r="F90" s="10" t="s">
-        <v>202</v>
+        <v>12</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>198</v>
+        <v>13</v>
       </c>
       <c r="H90" s="10"/>
     </row>
@@ -4383,19 +4270,19 @@
         <v>15</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="E91" s="8"/>
       <c r="F91" s="8" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="G91" s="7" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="H91" s="8"/>
     </row>
     <row r="92" spans="1:8">
-      <c r="A92" s="7">
+      <c r="A92" s="10">
         <v>91</v>
       </c>
       <c r="B92" s="10" t="s">
@@ -4406,16 +4293,12 @@
       <c r="E92" s="10">
         <v>4</v>
       </c>
-      <c r="F92" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G92" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="F92" s="10"/>
+      <c r="G92" s="9"/>
       <c r="H92" s="10"/>
     </row>
     <row r="93" spans="1:8">
-      <c r="A93" s="9">
+      <c r="A93" s="10">
         <v>92</v>
       </c>
       <c r="B93" s="8" t="s">
@@ -4425,14 +4308,14 @@
         <v>15</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="E93" s="8"/>
       <c r="F93" s="8" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="G93" s="7" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="H93" s="8"/>
     </row>
@@ -4448,49 +4331,51 @@
       <c r="E94" s="10">
         <v>4</v>
       </c>
-      <c r="F94" s="10"/>
-      <c r="G94" s="9"/>
+      <c r="F94" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="H94" s="10"/>
     </row>
     <row r="95" spans="1:8">
-      <c r="A95" s="7">
+      <c r="A95" s="10">
         <v>94</v>
       </c>
       <c r="B95" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C95" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D95" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E95" s="8"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="7"/>
+      <c r="H95" s="8"/>
+    </row>
+    <row r="96" spans="1:8">
+      <c r="A96" s="10">
+        <v>95</v>
+      </c>
+      <c r="B96" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C96" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D95" s="11" t="s">
+      <c r="D96" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8" t="s">
+      <c r="E96" s="10"/>
+      <c r="F96" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="G95" s="7" t="s">
+      <c r="G96" s="9" t="s">
         <v>91</v>
-      </c>
-      <c r="H95" s="8"/>
-    </row>
-    <row r="96" spans="1:8">
-      <c r="A96" s="9">
-        <v>95</v>
-      </c>
-      <c r="B96" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C96" s="10"/>
-      <c r="D96" s="10"/>
-      <c r="E96" s="10">
-        <v>4</v>
-      </c>
-      <c r="F96" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G96" s="9" t="s">
-        <v>13</v>
       </c>
       <c r="H96" s="10"/>
     </row>
@@ -4499,21 +4384,23 @@
         <v>96</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C97" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D97" s="11" t="s">
-        <v>203</v>
-      </c>
-      <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-      <c r="G97" s="7"/>
+        <v>11</v>
+      </c>
+      <c r="C97" s="8"/>
+      <c r="D97" s="11"/>
+      <c r="E97" s="8">
+        <v>4</v>
+      </c>
+      <c r="F97" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G97" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="H97" s="8"/>
     </row>
     <row r="98" spans="1:8">
-      <c r="A98" s="7">
+      <c r="A98" s="10">
         <v>97</v>
       </c>
       <c r="B98" s="10" t="s">
@@ -4523,19 +4410,19 @@
         <v>15</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="E98" s="10"/>
       <c r="F98" s="10" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="H98" s="10"/>
     </row>
     <row r="99" spans="1:8">
-      <c r="A99" s="9">
+      <c r="A99" s="10">
         <v>98</v>
       </c>
       <c r="B99" s="8" t="s">
@@ -4546,12 +4433,8 @@
       <c r="E99" s="8">
         <v>4</v>
       </c>
-      <c r="F99" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G99" s="7" t="s">
-        <v>13</v>
-      </c>
+      <c r="F99" s="8"/>
+      <c r="G99" s="7"/>
       <c r="H99" s="8"/>
     </row>
     <row r="100" spans="1:8">
@@ -4565,19 +4448,19 @@
         <v>15</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="E100" s="10"/>
       <c r="F100" s="10" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="H100" s="10"/>
     </row>
     <row r="101" spans="1:8">
-      <c r="A101" s="7">
+      <c r="A101" s="10">
         <v>100</v>
       </c>
       <c r="B101" s="8" t="s">
@@ -4588,29 +4471,35 @@
       <c r="E101" s="8">
         <v>4</v>
       </c>
-      <c r="F101" s="8"/>
-      <c r="G101" s="7"/>
+      <c r="F101" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G101" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="H101" s="8"/>
     </row>
     <row r="102" spans="1:8">
-      <c r="A102" s="9">
+      <c r="A102" s="10">
         <v>101</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E102" s="10"/>
+        <v>204</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>205</v>
+      </c>
       <c r="F102" s="10" t="s">
-        <v>90</v>
+        <v>206</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>91</v>
+        <v>207</v>
       </c>
       <c r="H102" s="10"/>
     </row>
@@ -4624,54 +4513,50 @@
       <c r="C103" s="8"/>
       <c r="D103" s="11"/>
       <c r="E103" s="8">
-        <v>4</v>
-      </c>
-      <c r="F103" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G103" s="7" t="s">
-        <v>13</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F103" s="8"/>
+      <c r="G103" s="7"/>
       <c r="H103" s="8"/>
     </row>
     <row r="104" spans="1:8">
-      <c r="A104" s="7">
+      <c r="A104" s="10">
         <v>103</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C104" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C104" s="10"/>
+      <c r="D104" s="10"/>
+      <c r="E104" s="10"/>
+      <c r="F104" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="G104" s="9" t="s">
+        <v>209</v>
+      </c>
+      <c r="H104" s="10"/>
+    </row>
+    <row r="105" spans="1:8">
+      <c r="A105" s="10">
+        <v>104</v>
+      </c>
+      <c r="B105" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C105" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D104" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="E104" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="F104" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="G104" s="9" t="s">
-        <v>207</v>
-      </c>
-      <c r="H104" s="10"/>
-    </row>
-    <row r="105" spans="1:8">
-      <c r="A105" s="9">
-        <v>104</v>
-      </c>
-      <c r="B105" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C105" s="8"/>
-      <c r="D105" s="11"/>
-      <c r="E105" s="8">
-        <v>5</v>
-      </c>
-      <c r="F105" s="8"/>
-      <c r="G105" s="7"/>
+      <c r="D105" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="E105" s="8"/>
+      <c r="F105" s="8" t="s">
+        <v>211</v>
+      </c>
+      <c r="G105" s="7" t="s">
+        <v>212</v>
+      </c>
       <c r="H105" s="8"/>
     </row>
     <row r="106" spans="1:8">
@@ -4679,171 +4564,173 @@
         <v>105</v>
       </c>
       <c r="B106" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C106" s="10"/>
-      <c r="D106" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D106" s="10" t="s">
+        <v>180</v>
+      </c>
       <c r="E106" s="10"/>
       <c r="F106" s="10" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="H106" s="10"/>
     </row>
     <row r="107" spans="1:8">
-      <c r="A107" s="7">
+      <c r="A107" s="10">
         <v>106</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="C107" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="E107" s="8"/>
+        <v>213</v>
+      </c>
+      <c r="E107" s="8" t="s">
+        <v>214</v>
+      </c>
       <c r="F107" s="8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="H107" s="8"/>
     </row>
     <row r="108" spans="1:8">
-      <c r="A108" s="9">
+      <c r="A108" s="10">
         <v>107</v>
       </c>
       <c r="B108" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C108" s="8"/>
+      <c r="D108" s="11"/>
+      <c r="E108" s="8">
+        <v>5</v>
+      </c>
+      <c r="F108" s="8"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="8"/>
+    </row>
+    <row r="109" spans="1:8">
+      <c r="A109" s="10">
+        <v>108</v>
+      </c>
+      <c r="B109" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10" t="s">
+        <v>217</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>218</v>
+      </c>
+      <c r="H109" s="10"/>
+    </row>
+    <row r="110" spans="1:8">
+      <c r="A110" s="10">
+        <v>109</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="E110" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F110" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H110" s="8"/>
+    </row>
+    <row r="111" spans="1:8">
+      <c r="A111" s="10">
+        <v>110</v>
+      </c>
+      <c r="B111" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D111" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="F111" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="H111" s="10"/>
+    </row>
+    <row r="112" spans="1:8">
+      <c r="A112" s="10">
+        <v>111</v>
+      </c>
+      <c r="B112" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="C108" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D108" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="E108" s="10"/>
-      <c r="F108" s="10" t="s">
-        <v>211</v>
-      </c>
-      <c r="G108" s="9" t="s">
-        <v>212</v>
-      </c>
-      <c r="H108" s="10"/>
-    </row>
-    <row r="109" spans="1:8">
-      <c r="A109" s="9">
-        <v>108</v>
-      </c>
-      <c r="B109" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D109" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="E109" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="F109" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="G109" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H109" s="8"/>
-    </row>
-    <row r="110" spans="1:8">
-      <c r="A110" s="9">
-        <v>109</v>
-      </c>
-      <c r="B110" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C110" s="8"/>
-      <c r="D110" s="11"/>
-      <c r="E110" s="8">
-        <v>5</v>
-      </c>
-      <c r="F110" s="8"/>
-      <c r="G110" s="7"/>
-      <c r="H110" s="8"/>
-    </row>
-    <row r="111" spans="1:8">
-      <c r="A111" s="9">
-        <v>110</v>
-      </c>
-      <c r="B111" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C111" s="10"/>
-      <c r="D111" s="10"/>
-      <c r="E111" s="10"/>
-      <c r="F111" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="G111" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="H111" s="10"/>
-    </row>
-    <row r="112" spans="1:8">
-      <c r="A112" s="9">
-        <v>111</v>
-      </c>
-      <c r="B112" s="8" t="s">
-        <v>47</v>
       </c>
       <c r="C112" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="E112" s="8" t="s">
-        <v>220</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E112" s="8"/>
       <c r="F112" s="8" t="s">
-        <v>221</v>
+        <v>90</v>
       </c>
       <c r="G112" s="7" t="s">
-        <v>222</v>
+        <v>91</v>
       </c>
       <c r="H112" s="8"/>
     </row>
     <row r="113" spans="1:8">
-      <c r="A113" s="9">
+      <c r="A113" s="10">
         <v>112</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D113" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="E113" s="10" t="s">
-        <v>224</v>
+        <v>11</v>
+      </c>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10">
+        <v>4</v>
       </c>
       <c r="F113" s="10" t="s">
-        <v>225</v>
+        <v>12</v>
       </c>
       <c r="G113" s="9" t="s">
-        <v>226</v>
+        <v>13</v>
       </c>
       <c r="H113" s="10"/>
     </row>
     <row r="114" spans="1:8">
-      <c r="A114" s="9">
+      <c r="A114" s="10">
         <v>113</v>
       </c>
       <c r="B114" s="8" t="s">
@@ -4853,19 +4740,19 @@
         <v>15</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>89</v>
+        <v>118</v>
       </c>
       <c r="E114" s="8"/>
       <c r="F114" s="8" t="s">
-        <v>90</v>
+        <v>119</v>
       </c>
       <c r="G114" s="7" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="H114" s="8"/>
     </row>
     <row r="115" spans="1:8">
-      <c r="A115" s="9">
+      <c r="A115" s="10">
         <v>114</v>
       </c>
       <c r="B115" s="10" t="s">
@@ -4876,16 +4763,12 @@
       <c r="E115" s="10">
         <v>4</v>
       </c>
-      <c r="F115" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G115" s="9" t="s">
-        <v>13</v>
-      </c>
+      <c r="F115" s="10"/>
+      <c r="G115" s="9"/>
       <c r="H115" s="10"/>
     </row>
     <row r="116" spans="1:8">
-      <c r="A116" s="9">
+      <c r="A116" s="10">
         <v>115</v>
       </c>
       <c r="B116" s="8" t="s">
@@ -4895,19 +4778,19 @@
         <v>15</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>118</v>
+        <v>89</v>
       </c>
       <c r="E116" s="8"/>
       <c r="F116" s="8" t="s">
-        <v>119</v>
+        <v>90</v>
       </c>
       <c r="G116" s="7" t="s">
-        <v>120</v>
+        <v>91</v>
       </c>
       <c r="H116" s="8"/>
     </row>
     <row r="117" spans="1:8">
-      <c r="A117" s="9">
+      <c r="A117" s="10">
         <v>116</v>
       </c>
       <c r="B117" s="10" t="s">
@@ -4918,34 +4801,38 @@
       <c r="E117" s="10">
         <v>4</v>
       </c>
-      <c r="F117" s="10"/>
-      <c r="G117" s="9"/>
+      <c r="F117" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G117" s="9" t="s">
+        <v>13</v>
+      </c>
       <c r="H117" s="10"/>
     </row>
     <row r="118" spans="1:8">
-      <c r="A118" s="9">
+      <c r="A118" s="10">
         <v>117</v>
       </c>
       <c r="B118" s="8" t="s">
         <v>19</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>89</v>
+        <v>227</v>
       </c>
       <c r="E118" s="8"/>
       <c r="F118" s="8" t="s">
-        <v>90</v>
+        <v>228</v>
       </c>
       <c r="G118" s="7" t="s">
-        <v>91</v>
+        <v>229</v>
       </c>
       <c r="H118" s="8"/>
     </row>
     <row r="119" spans="1:8">
-      <c r="A119" s="9">
+      <c r="A119" s="10">
         <v>118</v>
       </c>
       <c r="B119" s="10" t="s">
@@ -4954,18 +4841,14 @@
       <c r="C119" s="10"/>
       <c r="D119" s="10"/>
       <c r="E119" s="10">
-        <v>4</v>
-      </c>
-      <c r="F119" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G119" s="9" t="s">
-        <v>13</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="F119" s="10"/>
+      <c r="G119" s="9"/>
       <c r="H119" s="10"/>
     </row>
     <row r="120" spans="1:8">
-      <c r="A120" s="9">
+      <c r="A120" s="10">
         <v>119</v>
       </c>
       <c r="B120" s="8" t="s">
@@ -4975,19 +4858,15 @@
         <v>20</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="E120" s="8"/>
-      <c r="F120" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="G120" s="7" t="s">
-        <v>229</v>
-      </c>
+      <c r="F120" s="8"/>
+      <c r="G120" s="7"/>
       <c r="H120" s="8"/>
     </row>
     <row r="121" spans="1:8">
-      <c r="A121" s="9">
+      <c r="A121" s="10">
         <v>120</v>
       </c>
       <c r="B121" s="10" t="s">
@@ -5003,7 +4882,7 @@
       <c r="H121" s="10"/>
     </row>
     <row r="122" spans="1:8">
-      <c r="A122" s="9">
+      <c r="A122" s="10">
         <v>121</v>
       </c>
       <c r="B122" s="8" t="s">
@@ -5013,15 +4892,19 @@
         <v>20</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="E122" s="8"/>
-      <c r="F122" s="8"/>
-      <c r="G122" s="7"/>
+      <c r="F122" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>233</v>
+      </c>
       <c r="H122" s="8"/>
     </row>
     <row r="123" spans="1:8">
-      <c r="A123" s="9">
+      <c r="A123" s="10">
         <v>122</v>
       </c>
       <c r="B123" s="10" t="s">
@@ -5030,14 +4913,18 @@
       <c r="C123" s="10"/>
       <c r="D123" s="10"/>
       <c r="E123" s="10">
-        <v>1</v>
-      </c>
-      <c r="F123" s="10"/>
-      <c r="G123" s="9"/>
+        <v>3</v>
+      </c>
+      <c r="F123" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="G123" s="9" t="s">
+        <v>235</v>
+      </c>
       <c r="H123" s="10"/>
     </row>
     <row r="124" spans="1:8">
-      <c r="A124" s="9">
+      <c r="A124" s="10">
         <v>123</v>
       </c>
       <c r="B124" s="8" t="s">
@@ -5047,213 +4934,215 @@
         <v>20</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="E124" s="8"/>
       <c r="F124" s="8" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="G124" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="H124" s="8"/>
     </row>
     <row r="125" spans="1:8">
-      <c r="A125" s="9">
+      <c r="A125" s="10">
         <v>124</v>
       </c>
       <c r="B125" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D125" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="E125" s="10"/>
+      <c r="F125" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="G125" s="9" t="s">
+        <v>241</v>
+      </c>
+      <c r="H125" s="10"/>
+    </row>
+    <row r="126" spans="1:8">
+      <c r="A126" s="10">
+        <v>125</v>
+      </c>
+      <c r="B126" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C125" s="10"/>
-      <c r="D125" s="10"/>
-      <c r="E125" s="10">
-        <v>3</v>
-      </c>
-      <c r="F125" s="10" t="s">
-        <v>234</v>
-      </c>
-      <c r="G125" s="9" t="s">
-        <v>235</v>
-      </c>
-      <c r="H125" s="10"/>
-    </row>
-    <row r="126" spans="1:8">
-      <c r="A126" s="9">
-        <v>125</v>
-      </c>
-      <c r="B126" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C126" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D126" s="11" t="s">
-        <v>236</v>
-      </c>
-      <c r="E126" s="8"/>
-      <c r="F126" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="G126" s="7" t="s">
-        <v>238</v>
-      </c>
+      <c r="C126" s="8"/>
+      <c r="D126" s="11"/>
+      <c r="E126" s="8">
+        <v>2</v>
+      </c>
+      <c r="F126" s="8"/>
+      <c r="G126" s="7"/>
       <c r="H126" s="8"/>
     </row>
     <row r="127" spans="1:8">
-      <c r="A127" s="9">
+      <c r="A127" s="10">
         <v>126</v>
       </c>
       <c r="B127" s="10" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>239</v>
-      </c>
-      <c r="E127" s="10"/>
+        <v>242</v>
+      </c>
+      <c r="E127" s="10" t="s">
+        <v>243</v>
+      </c>
       <c r="F127" s="10" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H127" s="10"/>
     </row>
     <row r="128" spans="1:8">
-      <c r="A128" s="9">
+      <c r="A128" s="10">
         <v>127</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C128" s="8"/>
-      <c r="D128" s="11"/>
-      <c r="E128" s="8">
-        <v>2</v>
-      </c>
-      <c r="F128" s="8"/>
-      <c r="G128" s="7"/>
+        <v>65</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D128" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>248</v>
+      </c>
+      <c r="G128" s="7" t="s">
+        <v>249</v>
+      </c>
       <c r="H128" s="8"/>
     </row>
     <row r="129" spans="1:8">
-      <c r="A129" s="9">
+      <c r="A129" s="10">
         <v>128</v>
       </c>
       <c r="B129" s="10" t="s">
-        <v>65</v>
+        <v>47</v>
       </c>
       <c r="C129" s="10" t="s">
         <v>15</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="E129" s="10" t="s">
-        <v>243</v>
+        <v>250</v>
+      </c>
+      <c r="E129" s="10">
+        <v>9889656446</v>
       </c>
       <c r="F129" s="10" t="s">
-        <v>244</v>
+        <v>147</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>245</v>
+        <v>148</v>
       </c>
       <c r="H129" s="10"/>
     </row>
     <row r="130" spans="1:8">
-      <c r="A130" s="9">
+      <c r="A130" s="10">
         <v>129</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="C130" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="E130" s="8" t="s">
-        <v>247</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="E130" s="8"/>
       <c r="F130" s="8" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="G130" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H130" s="8"/>
     </row>
     <row r="131" spans="1:8">
-      <c r="A131" s="9">
+      <c r="A131" s="10">
         <v>130</v>
       </c>
       <c r="B131" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D131" s="10" t="s">
-        <v>250</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C131" s="10"/>
+      <c r="D131" s="10"/>
       <c r="E131" s="10">
-        <v>9889656446</v>
+        <v>5</v>
       </c>
       <c r="F131" s="10" t="s">
-        <v>147</v>
+        <v>12</v>
       </c>
       <c r="G131" s="9" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="H131" s="10"/>
     </row>
     <row r="132" spans="1:8">
-      <c r="A132" s="9">
+      <c r="A132" s="10">
         <v>131</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>19</v>
+        <v>254</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="E132" s="8"/>
       <c r="F132" s="8" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="G132" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="H132" s="8"/>
     </row>
     <row r="133" spans="1:8">
-      <c r="A133" s="9">
+      <c r="A133" s="10">
         <v>132</v>
       </c>
       <c r="B133" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C133" s="10"/>
-      <c r="D133" s="10"/>
-      <c r="E133" s="10">
-        <v>5</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D133" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="E133" s="10"/>
       <c r="F133" s="10" t="s">
-        <v>12</v>
+        <v>259</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>91</v>
+        <v>257</v>
       </c>
       <c r="H133" s="10"/>
     </row>
     <row r="134" spans="1:8">
-      <c r="A134" s="9">
+      <c r="A134" s="10">
         <v>133</v>
       </c>
       <c r="B134" s="8" t="s">
@@ -5263,11 +5152,11 @@
         <v>20</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
       <c r="E134" s="8"/>
       <c r="F134" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="G134" s="7" t="s">
         <v>257</v>
@@ -5275,7 +5164,7 @@
       <c r="H134" s="8"/>
     </row>
     <row r="135" spans="1:8">
-      <c r="A135" s="9">
+      <c r="A135" s="10">
         <v>134</v>
       </c>
       <c r="B135" s="10" t="s">
@@ -5285,11 +5174,11 @@
         <v>20</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="E135" s="10"/>
       <c r="F135" s="10" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="G135" s="9" t="s">
         <v>257</v>
@@ -5297,7 +5186,7 @@
       <c r="H135" s="10"/>
     </row>
     <row r="136" spans="1:8">
-      <c r="A136" s="9">
+      <c r="A136" s="10">
         <v>135</v>
       </c>
       <c r="B136" s="8" t="s">
@@ -5307,11 +5196,11 @@
         <v>20</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="E136" s="8"/>
       <c r="F136" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="G136" s="7" t="s">
         <v>257</v>
@@ -5319,7 +5208,7 @@
       <c r="H136" s="8"/>
     </row>
     <row r="137" spans="1:8">
-      <c r="A137" s="9">
+      <c r="A137" s="10">
         <v>136</v>
       </c>
       <c r="B137" s="10" t="s">
@@ -5329,11 +5218,11 @@
         <v>20</v>
       </c>
       <c r="D137" s="10" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="E137" s="10"/>
       <c r="F137" s="10" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="G137" s="9" t="s">
         <v>257</v>
@@ -5341,7 +5230,7 @@
       <c r="H137" s="10"/>
     </row>
     <row r="138" spans="1:8">
-      <c r="A138" s="9">
+      <c r="A138" s="10">
         <v>137</v>
       </c>
       <c r="B138" s="8" t="s">
@@ -5351,11 +5240,11 @@
         <v>20</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="E138" s="8"/>
       <c r="F138" s="8" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="G138" s="7" t="s">
         <v>257</v>
@@ -5363,7 +5252,7 @@
       <c r="H138" s="8"/>
     </row>
     <row r="139" spans="1:8">
-      <c r="A139" s="9">
+      <c r="A139" s="10">
         <v>138</v>
       </c>
       <c r="B139" s="10" t="s">
@@ -5373,11 +5262,11 @@
         <v>20</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="E139" s="10"/>
       <c r="F139" s="10" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="G139" s="9" t="s">
         <v>257</v>
@@ -5385,51 +5274,45 @@
       <c r="H139" s="10"/>
     </row>
     <row r="140" spans="1:8">
-      <c r="A140" s="9">
+      <c r="A140" s="10">
         <v>139</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>254</v>
+        <v>19</v>
       </c>
       <c r="C140" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="E140" s="8"/>
       <c r="F140" s="8" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="G140" s="7" t="s">
-        <v>257</v>
+        <v>274</v>
       </c>
       <c r="H140" s="8"/>
     </row>
     <row r="141" spans="1:8">
-      <c r="A141" s="9">
+      <c r="A141" s="10">
         <v>140</v>
       </c>
       <c r="B141" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C141" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D141" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="E141" s="10"/>
-      <c r="F141" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="G141" s="9" t="s">
-        <v>257</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C141" s="10"/>
+      <c r="D141" s="10"/>
+      <c r="E141" s="10">
+        <v>5</v>
+      </c>
+      <c r="F141" s="10"/>
+      <c r="G141" s="9"/>
       <c r="H141" s="10"/>
     </row>
     <row r="142" spans="1:8">
-      <c r="A142" s="9">
+      <c r="A142" s="10">
         <v>141</v>
       </c>
       <c r="B142" s="8" t="s">
@@ -5439,19 +5322,19 @@
         <v>20</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="E142" s="8"/>
       <c r="F142" s="8" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="G142" s="7" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="H142" s="8"/>
     </row>
     <row r="143" spans="1:8">
-      <c r="A143" s="9">
+      <c r="A143" s="10">
         <v>142</v>
       </c>
       <c r="B143" s="10" t="s">
@@ -5460,72 +5343,34 @@
       <c r="C143" s="10"/>
       <c r="D143" s="10"/>
       <c r="E143" s="10">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F143" s="10"/>
       <c r="G143" s="9"/>
       <c r="H143" s="10"/>
-    </row>
-    <row r="144" spans="1:8">
-      <c r="A144" s="9">
-        <v>143</v>
-      </c>
-      <c r="B144" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C144" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D144" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="E144" s="8"/>
-      <c r="F144" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="G144" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H144" s="8"/>
-    </row>
-    <row r="145" spans="1:8">
-      <c r="A145" s="9">
-        <v>144</v>
-      </c>
-      <c r="B145" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C145" s="10"/>
-      <c r="D145" s="10"/>
-      <c r="E145" s="10">
-        <v>4</v>
-      </c>
-      <c r="F145" s="10"/>
-      <c r="G145" s="9"/>
-      <c r="H145" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="7">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 B4:B17 B73:B75 C7:C9 C14:C17 C73:C75">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 B4:B13 B14:B15 B71:B73 C7:C9 C14:C15 C71:C73">
       <formula1>[1]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L8 L10 C18:C28">
-      <formula1>[3]DataList!#REF!</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C44 C47 C65 C69 C93 C96 C100 C116 C27:C33">
+      <formula1>[4]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9 L11 L12 L13 L17 C2:C3 L4:L7 L14:L16">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46 B47 B48 B49 B50 B51 B63 B67 B68 B91 B92 B98 B99 B108 B114 B115 B123 B124 B1:B3 B16:B36 B37:B45 B52:B53 B54:B62 B64:B66 B69:B70 B74:B90 B93:B94 B95:B97 B100:B101 B102:B107 B109:B113 B116:B117 B118:B121 B126:B141 B142:B143">
+      <formula1/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C89">
+      <formula1>[6]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
       <formula1>[5]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K12 K13 K17 B48 B49 B50 B51 B52 B53 B65 B69 B70 B93 B94 B100 B101 B110 B116 B117 B125 B126 B1:B3 B18:B38 B39:B47 B54:B55 B56:B64 B66:B68 B71:B72 B76:B92 B95:B96 B97:B99 B102:B103 B104:B109 B111:B115 B118:B119 B120:B123 B128:B143 B144:B145 K4:K11 K14:K16">
-      <formula1/>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C46 C49 C67 C71 C95 C98 C102 C118 C29:C35">
-      <formula1>[4]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C91">
-      <formula1>[6]DataList!#REF!</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C16:C26">
+      <formula1>[3]DataList!#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Save_Back_Front_Navi.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Save_Back_Front_Navi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27465" windowHeight="13230"/>
+    <workbookView windowWidth="28680" windowHeight="13650"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362">
   <si>
     <t>Step No</t>
   </si>
@@ -670,48 +670,6 @@
   </si>
   <si>
     <t>Diagnosis date selected</t>
-  </si>
-  <si>
-    <t>MEDICATION_NAME</t>
-  </si>
-  <si>
-    <t>Con</t>
-  </si>
-  <si>
-    <t>Type Medication name</t>
-  </si>
-  <si>
-    <t>Medication name entered</t>
-  </si>
-  <si>
-    <t>Select Medication name</t>
-  </si>
-  <si>
-    <t>Medication name selected</t>
-  </si>
-  <si>
-    <t>DOSAGE</t>
-  </si>
-  <si>
-    <t>TestDosage</t>
-  </si>
-  <si>
-    <t>Enter Dosage</t>
-  </si>
-  <si>
-    <t>Dosage entered</t>
-  </si>
-  <si>
-    <t>FREQUENCY</t>
-  </si>
-  <si>
-    <t>Daily</t>
-  </si>
-  <si>
-    <t>Enter frequency</t>
-  </si>
-  <si>
-    <t>Frequency entered</t>
   </si>
   <si>
     <t>SELF_LASTPAGE</t>
@@ -1167,9 +1125,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1212,25 +1170,11 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1242,24 +1186,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1274,44 +1240,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1327,14 +1256,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1348,11 +1278,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1377,13 +1335,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1395,25 +1347,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1425,31 +1371,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1461,25 +1389,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1497,25 +1407,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1527,7 +1461,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1539,25 +1473,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1610,6 +1568,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1625,20 +1601,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1653,21 +1626,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1710,7 +1668,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1728,130 +1686,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2298,10 +2256,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H143"/>
+  <dimension ref="A1:H138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="D136" sqref="D136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -4586,22 +4544,20 @@
         <v>106</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>47</v>
+        <v>19</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="E107" s="8" t="s">
-        <v>214</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="E107" s="8"/>
       <c r="F107" s="8" t="s">
-        <v>215</v>
+        <v>90</v>
       </c>
       <c r="G107" s="7" t="s">
-        <v>216</v>
+        <v>91</v>
       </c>
       <c r="H107" s="8"/>
     </row>
@@ -4612,742 +4568,638 @@
       <c r="B108" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C108" s="8"/>
-      <c r="D108" s="11"/>
-      <c r="E108" s="8">
-        <v>5</v>
-      </c>
-      <c r="F108" s="8"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="8"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+      <c r="E108" s="10">
+        <v>4</v>
+      </c>
+      <c r="F108" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G108" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H108" s="10"/>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="10">
         <v>108</v>
       </c>
-      <c r="B109" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C109" s="10"/>
-      <c r="D109" s="10"/>
-      <c r="E109" s="10"/>
-      <c r="F109" s="10" t="s">
-        <v>217</v>
-      </c>
-      <c r="G109" s="9" t="s">
-        <v>218</v>
-      </c>
-      <c r="H109" s="10"/>
+      <c r="B109" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C109" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D109" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E109" s="8"/>
+      <c r="F109" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="G109" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H109" s="8"/>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="10">
         <v>109</v>
       </c>
-      <c r="B110" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D110" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="E110" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="F110" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="G110" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="H110" s="8"/>
+      <c r="B110" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C110" s="10"/>
+      <c r="D110" s="10"/>
+      <c r="E110" s="10">
+        <v>4</v>
+      </c>
+      <c r="F110" s="10"/>
+      <c r="G110" s="9"/>
+      <c r="H110" s="10"/>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="10">
         <v>110</v>
       </c>
-      <c r="B111" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C111" s="10" t="s">
+      <c r="B111" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C111" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="D111" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="E111" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="F111" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="G111" s="9" t="s">
-        <v>226</v>
-      </c>
-      <c r="H111" s="10"/>
+      <c r="D111" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="E111" s="8"/>
+      <c r="F111" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G111" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H111" s="8"/>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="10">
         <v>111</v>
       </c>
-      <c r="B112" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C112" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D112" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G112" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H112" s="8"/>
+      <c r="B112" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C112" s="10"/>
+      <c r="D112" s="10"/>
+      <c r="E112" s="10">
+        <v>4</v>
+      </c>
+      <c r="F112" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G112" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H112" s="10"/>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="10">
         <v>112</v>
       </c>
-      <c r="B113" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C113" s="10"/>
-      <c r="D113" s="10"/>
-      <c r="E113" s="10">
-        <v>4</v>
-      </c>
-      <c r="F113" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G113" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H113" s="10"/>
+      <c r="B113" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C113" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D113" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="E113" s="8"/>
+      <c r="F113" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="G113" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="H113" s="8"/>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="10">
         <v>113</v>
       </c>
-      <c r="B114" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C114" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D114" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E114" s="8"/>
-      <c r="F114" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="G114" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H114" s="8"/>
+      <c r="B114" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C114" s="10"/>
+      <c r="D114" s="10"/>
+      <c r="E114" s="10">
+        <v>1</v>
+      </c>
+      <c r="F114" s="10"/>
+      <c r="G114" s="9"/>
+      <c r="H114" s="10"/>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="10">
         <v>114</v>
       </c>
-      <c r="B115" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C115" s="10"/>
-      <c r="D115" s="10"/>
-      <c r="E115" s="10">
-        <v>4</v>
-      </c>
-      <c r="F115" s="10"/>
-      <c r="G115" s="9"/>
-      <c r="H115" s="10"/>
+      <c r="B115" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C115" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D115" s="11" t="s">
+        <v>216</v>
+      </c>
+      <c r="E115" s="8"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="7"/>
+      <c r="H115" s="8"/>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="10">
         <v>115</v>
       </c>
-      <c r="B116" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C116" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D116" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G116" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H116" s="8"/>
+      <c r="B116" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C116" s="10"/>
+      <c r="D116" s="10"/>
+      <c r="E116" s="10">
+        <v>1</v>
+      </c>
+      <c r="F116" s="10"/>
+      <c r="G116" s="9"/>
+      <c r="H116" s="10"/>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="10">
         <v>116</v>
       </c>
-      <c r="B117" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C117" s="10"/>
-      <c r="D117" s="10"/>
-      <c r="E117" s="10">
-        <v>4</v>
-      </c>
-      <c r="F117" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G117" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H117" s="10"/>
+      <c r="B117" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D117" s="11" t="s">
+        <v>217</v>
+      </c>
+      <c r="E117" s="8"/>
+      <c r="F117" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="G117" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H117" s="8"/>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="10">
         <v>117</v>
       </c>
-      <c r="B118" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C118" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D118" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8" t="s">
-        <v>228</v>
-      </c>
-      <c r="G118" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="H118" s="8"/>
+      <c r="B118" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C118" s="10"/>
+      <c r="D118" s="10"/>
+      <c r="E118" s="10">
+        <v>3</v>
+      </c>
+      <c r="F118" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G118" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H118" s="10"/>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="10">
         <v>118</v>
       </c>
-      <c r="B119" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C119" s="10"/>
-      <c r="D119" s="10"/>
-      <c r="E119" s="10">
-        <v>1</v>
-      </c>
-      <c r="F119" s="10"/>
-      <c r="G119" s="9"/>
-      <c r="H119" s="10"/>
+      <c r="B119" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D119" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E119" s="8"/>
+      <c r="F119" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="G119" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="H119" s="8"/>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="10">
         <v>119</v>
       </c>
-      <c r="B120" s="8" t="s">
+      <c r="B120" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="C120" s="8" t="s">
+      <c r="C120" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D120" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="E120" s="8"/>
-      <c r="F120" s="8"/>
-      <c r="G120" s="7"/>
-      <c r="H120" s="8"/>
+      <c r="D120" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G120" s="9" t="s">
+        <v>227</v>
+      </c>
+      <c r="H120" s="10"/>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="10">
         <v>120</v>
       </c>
-      <c r="B121" s="10" t="s">
+      <c r="B121" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C121" s="10"/>
-      <c r="D121" s="10"/>
-      <c r="E121" s="10">
-        <v>1</v>
-      </c>
-      <c r="F121" s="10"/>
-      <c r="G121" s="9"/>
-      <c r="H121" s="10"/>
+      <c r="C121" s="8"/>
+      <c r="D121" s="11"/>
+      <c r="E121" s="8">
+        <v>2</v>
+      </c>
+      <c r="F121" s="8"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="8"/>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="10">
         <v>121</v>
       </c>
-      <c r="B122" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C122" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D122" s="11" t="s">
+      <c r="B122" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D122" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>229</v>
+      </c>
+      <c r="F122" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="G122" s="9" t="s">
         <v>231</v>
       </c>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8" t="s">
-        <v>232</v>
-      </c>
-      <c r="G122" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="H122" s="8"/>
+      <c r="H122" s="10"/>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="10">
         <v>122</v>
       </c>
-      <c r="B123" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C123" s="10"/>
-      <c r="D123" s="10"/>
-      <c r="E123" s="10">
-        <v>3</v>
-      </c>
-      <c r="F123" s="10" t="s">
+      <c r="B123" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="F123" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="G123" s="9" t="s">
+      <c r="G123" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="H123" s="10"/>
+      <c r="H123" s="8"/>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="10">
         <v>123</v>
       </c>
-      <c r="B124" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C124" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D124" s="11" t="s">
+      <c r="B124" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D124" s="10" t="s">
         <v>236</v>
       </c>
-      <c r="E124" s="8"/>
-      <c r="F124" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="G124" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="H124" s="8"/>
+      <c r="E124" s="10">
+        <v>9889656446</v>
+      </c>
+      <c r="F124" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="G124" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="H124" s="10"/>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="10">
         <v>124</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="B125" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="C125" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D125" s="10" t="s">
+      <c r="C125" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="D125" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="E125" s="8"/>
+      <c r="F125" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="G125" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="E125" s="10"/>
-      <c r="F125" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="G125" s="9" t="s">
-        <v>241</v>
-      </c>
-      <c r="H125" s="10"/>
+      <c r="H125" s="8"/>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="10">
         <v>125</v>
       </c>
-      <c r="B126" s="8" t="s">
+      <c r="B126" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C126" s="8"/>
-      <c r="D126" s="11"/>
-      <c r="E126" s="8">
-        <v>2</v>
-      </c>
-      <c r="F126" s="8"/>
-      <c r="G126" s="7"/>
-      <c r="H126" s="8"/>
+      <c r="C126" s="10"/>
+      <c r="D126" s="10"/>
+      <c r="E126" s="10">
+        <v>5</v>
+      </c>
+      <c r="F126" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G126" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="H126" s="10"/>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="10">
         <v>126</v>
       </c>
-      <c r="B127" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D127" s="10" t="s">
+      <c r="B127" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D127" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="E127" s="8"/>
+      <c r="F127" s="8" t="s">
         <v>242</v>
       </c>
-      <c r="E127" s="10" t="s">
+      <c r="G127" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F127" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="G127" s="9" t="s">
-        <v>245</v>
-      </c>
-      <c r="H127" s="10"/>
+      <c r="H127" s="8"/>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="10">
         <v>127</v>
       </c>
-      <c r="B128" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C128" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D128" s="11" t="s">
-        <v>246</v>
-      </c>
-      <c r="E128" s="8" t="s">
-        <v>247</v>
-      </c>
-      <c r="F128" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="G128" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="H128" s="8"/>
+      <c r="B128" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D128" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10" t="s">
+        <v>245</v>
+      </c>
+      <c r="G128" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="H128" s="10"/>
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="10">
         <v>128</v>
       </c>
-      <c r="B129" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D129" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="E129" s="10">
-        <v>9889656446</v>
-      </c>
-      <c r="F129" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="G129" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="H129" s="10"/>
+      <c r="B129" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D129" s="11" t="s">
+        <v>246</v>
+      </c>
+      <c r="E129" s="8"/>
+      <c r="F129" s="8" t="s">
+        <v>247</v>
+      </c>
+      <c r="G129" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H129" s="8"/>
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="10">
         <v>129</v>
       </c>
-      <c r="B130" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D130" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="E130" s="8"/>
-      <c r="F130" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="G130" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="H130" s="8"/>
+      <c r="B130" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="D130" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="E130" s="10"/>
+      <c r="F130" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="G130" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="H130" s="10"/>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="10">
         <v>130</v>
       </c>
-      <c r="B131" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C131" s="10"/>
-      <c r="D131" s="10"/>
-      <c r="E131" s="10">
-        <v>5</v>
-      </c>
-      <c r="F131" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G131" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="H131" s="10"/>
+      <c r="B131" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D131" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="E131" s="8"/>
+      <c r="F131" s="8" t="s">
+        <v>251</v>
+      </c>
+      <c r="G131" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H131" s="8"/>
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="10">
         <v>131</v>
       </c>
-      <c r="B132" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C132" s="8" t="s">
+      <c r="B132" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C132" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D132" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="E132" s="8"/>
-      <c r="F132" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="G132" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="H132" s="8"/>
+      <c r="D132" s="10" t="s">
+        <v>252</v>
+      </c>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10" t="s">
+        <v>253</v>
+      </c>
+      <c r="G132" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="H132" s="10"/>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="10">
         <v>132</v>
       </c>
-      <c r="B133" s="10" t="s">
+      <c r="B133" s="8" t="s">
+        <v>240</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D133" s="11" t="s">
         <v>254</v>
       </c>
-      <c r="C133" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D133" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="E133" s="10"/>
-      <c r="F133" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="G133" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="H133" s="10"/>
+      <c r="E133" s="8"/>
+      <c r="F133" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="G133" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H133" s="8"/>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="10">
         <v>133</v>
       </c>
-      <c r="B134" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C134" s="8" t="s">
+      <c r="B134" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="C134" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="D134" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="E134" s="8"/>
-      <c r="F134" s="8" t="s">
-        <v>261</v>
-      </c>
-      <c r="G134" s="7" t="s">
+      <c r="D134" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="E134" s="10"/>
+      <c r="F134" s="10" t="s">
         <v>257</v>
       </c>
-      <c r="H134" s="8"/>
+      <c r="G134" s="9" t="s">
+        <v>243</v>
+      </c>
+      <c r="H134" s="10"/>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="10">
         <v>134</v>
       </c>
-      <c r="B135" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C135" s="10" t="s">
+      <c r="B135" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C135" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D135" s="10" t="s">
-        <v>262</v>
-      </c>
-      <c r="E135" s="10"/>
-      <c r="F135" s="10" t="s">
-        <v>263</v>
-      </c>
-      <c r="G135" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="H135" s="10"/>
+      <c r="D135" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="E135" s="8"/>
+      <c r="F135" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="G135" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H135" s="8"/>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="10">
         <v>135</v>
       </c>
-      <c r="B136" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C136" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D136" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="E136" s="8"/>
-      <c r="F136" s="8" t="s">
-        <v>265</v>
-      </c>
-      <c r="G136" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="H136" s="8"/>
+      <c r="B136" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C136" s="10"/>
+      <c r="D136" s="10"/>
+      <c r="E136" s="10">
+        <v>5</v>
+      </c>
+      <c r="F136" s="10"/>
+      <c r="G136" s="9"/>
+      <c r="H136" s="10"/>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="10">
         <v>136</v>
       </c>
-      <c r="B137" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C137" s="10" t="s">
+      <c r="B137" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C137" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="D137" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="E137" s="10"/>
-      <c r="F137" s="10" t="s">
-        <v>267</v>
-      </c>
-      <c r="G137" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="H137" s="10"/>
+      <c r="D137" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="E137" s="8"/>
+      <c r="F137" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="G137" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="H137" s="8"/>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="10">
         <v>137</v>
       </c>
-      <c r="B138" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C138" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D138" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="E138" s="8"/>
-      <c r="F138" s="8" t="s">
-        <v>269</v>
-      </c>
-      <c r="G138" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="H138" s="8"/>
-    </row>
-    <row r="139" spans="1:8">
-      <c r="A139" s="10">
-        <v>138</v>
-      </c>
-      <c r="B139" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D139" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="E139" s="10"/>
-      <c r="F139" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="G139" s="9" t="s">
-        <v>257</v>
-      </c>
-      <c r="H139" s="10"/>
-    </row>
-    <row r="140" spans="1:8">
-      <c r="A140" s="10">
-        <v>139</v>
-      </c>
-      <c r="B140" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C140" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D140" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="G140" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="H140" s="8"/>
-    </row>
-    <row r="141" spans="1:8">
-      <c r="A141" s="10">
-        <v>140</v>
-      </c>
-      <c r="B141" s="10" t="s">
+      <c r="B138" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C141" s="10"/>
-      <c r="D141" s="10"/>
-      <c r="E141" s="10">
-        <v>5</v>
-      </c>
-      <c r="F141" s="10"/>
-      <c r="G141" s="9"/>
-      <c r="H141" s="10"/>
-    </row>
-    <row r="142" spans="1:8">
-      <c r="A142" s="10">
-        <v>141</v>
-      </c>
-      <c r="B142" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D142" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="E142" s="8"/>
-      <c r="F142" s="8" t="s">
-        <v>276</v>
-      </c>
-      <c r="G142" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H142" s="8"/>
-    </row>
-    <row r="143" spans="1:8">
-      <c r="A143" s="10">
-        <v>142</v>
-      </c>
-      <c r="B143" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C143" s="10"/>
-      <c r="D143" s="10"/>
-      <c r="E143" s="10">
+      <c r="C138" s="10"/>
+      <c r="D138" s="10"/>
+      <c r="E138" s="10">
         <v>4</v>
       </c>
-      <c r="F143" s="10"/>
-      <c r="G143" s="9"/>
-      <c r="H143" s="10"/>
+      <c r="F138" s="10"/>
+      <c r="G138" s="9"/>
+      <c r="H138" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="7">
@@ -5357,10 +5209,10 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 B4:B13 B14:B15 B71:B73 C7:C9 C14:C15 C71:C73">
       <formula1>[1]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C44 C47 C65 C69 C93 C96 C100 C116 C27:C33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C44 C47 C65 C69 C93 C96 C100 C111 C27:C33">
       <formula1>[4]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46 B47 B48 B49 B50 B51 B63 B67 B68 B91 B92 B98 B99 B108 B114 B115 B123 B124 B1:B3 B16:B36 B37:B45 B52:B53 B54:B62 B64:B66 B69:B70 B74:B90 B93:B94 B95:B97 B100:B101 B102:B107 B109:B113 B116:B117 B118:B121 B126:B141 B142:B143">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46 B47 B48 B49 B50 B51 B63 B67 B68 B91 B92 B98 B99 B109 B110 B118 B119 B1:B3 B16:B36 B37:B45 B52:B53 B54:B62 B64:B66 B69:B70 B74:B90 B93:B94 B95:B97 B100:B101 B102:B106 B107:B108 B111:B112 B113:B116 B121:B136 B137:B138">
       <formula1/>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C89">
@@ -5400,7 +5252,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>278</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5408,20 +5260,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>279</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="C3" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>282</v>
+        <v>268</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5432,20 +5284,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>283</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>284</v>
+        <v>270</v>
       </c>
       <c r="C6" t="s">
-        <v>285</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -5453,42 +5305,42 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="C8" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
       <c r="C10" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
       <c r="C11" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>296</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13" spans="3:3">
@@ -5503,12 +5355,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -5518,55 +5370,55 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>254</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>303</v>
+        <v>289</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>304</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>305</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>306</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -5576,152 +5428,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>308</v>
+        <v>294</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>309</v>
+        <v>295</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>310</v>
+        <v>296</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>311</v>
+        <v>297</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>312</v>
+        <v>298</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>313</v>
+        <v>299</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>314</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>315</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>316</v>
+        <v>302</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>317</v>
+        <v>303</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>318</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>319</v>
+        <v>305</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>320</v>
+        <v>306</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>321</v>
+        <v>307</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>322</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>323</v>
+        <v>309</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>324</v>
+        <v>310</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>325</v>
+        <v>311</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>326</v>
+        <v>312</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>327</v>
+        <v>313</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>328</v>
+        <v>314</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -5731,37 +5583,37 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
     </row>
     <row r="67" spans="3:3">
@@ -5771,164 +5623,164 @@
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -5943,7 +5795,7 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Save_Back_Front_Navi.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Save_Back_Front_Navi.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359">
   <si>
     <t>Step No</t>
   </si>
@@ -814,15 +814,6 @@
   </si>
   <si>
     <t>Return home clicked</t>
-  </si>
-  <si>
-    <t>PATIENT_LOGOUT</t>
-  </si>
-  <si>
-    <t>Click on logout</t>
-  </si>
-  <si>
-    <t>Logout successfully</t>
   </si>
   <si>
     <t>Actions</t>
@@ -1124,10 +1115,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1170,16 +1161,90 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1194,51 +1259,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1247,24 +1268,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1279,31 +1284,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1335,7 +1326,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1347,37 +1410,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1395,7 +1464,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1407,115 +1494,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1568,11 +1559,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1582,36 +1579,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1632,16 +1599,34 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1657,24 +1642,30 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1686,130 +1677,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2256,10 +2247,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
-      <selection activeCell="D136" sqref="D136"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="A137" sqref="$A137:$XFD138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2573,7 +2564,7 @@
       <c r="C15" s="8"/>
       <c r="D15" s="8"/>
       <c r="E15" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>41</v>
@@ -2793,7 +2784,7 @@
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F25" s="10" t="s">
         <v>41</v>
@@ -2997,7 +2988,7 @@
       <c r="C34" s="8"/>
       <c r="D34" s="11"/>
       <c r="E34" s="8">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F34" s="8" t="s">
         <v>12</v>
@@ -3241,7 +3232,7 @@
       <c r="C45" s="8"/>
       <c r="D45" s="11"/>
       <c r="E45" s="8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F45" s="8" t="s">
         <v>12</v>
@@ -3301,7 +3292,7 @@
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F48" s="10"/>
       <c r="G48" s="9"/>
@@ -3339,7 +3330,7 @@
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
       <c r="E50" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F50" s="10"/>
       <c r="G50" s="9"/>
@@ -3685,7 +3676,7 @@
       <c r="C66" s="10"/>
       <c r="D66" s="10"/>
       <c r="E66" s="10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F66" s="10" t="s">
         <v>12</v>
@@ -3727,7 +3718,7 @@
       <c r="C68" s="10"/>
       <c r="D68" s="10"/>
       <c r="E68" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F68" s="10"/>
       <c r="G68" s="9"/>
@@ -3765,7 +3756,7 @@
       <c r="C70" s="10"/>
       <c r="D70" s="10"/>
       <c r="E70" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F70" s="10" t="s">
         <v>12</v>
@@ -4207,7 +4198,7 @@
       <c r="C90" s="10"/>
       <c r="D90" s="10"/>
       <c r="E90" s="10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F90" s="10" t="s">
         <v>12</v>
@@ -4249,7 +4240,7 @@
       <c r="C92" s="10"/>
       <c r="D92" s="10"/>
       <c r="E92" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F92" s="10"/>
       <c r="G92" s="9"/>
@@ -4287,7 +4278,7 @@
       <c r="C94" s="10"/>
       <c r="D94" s="10"/>
       <c r="E94" s="10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F94" s="10" t="s">
         <v>12</v>
@@ -4347,7 +4338,7 @@
       <c r="C97" s="8"/>
       <c r="D97" s="11"/>
       <c r="E97" s="8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F97" s="8" t="s">
         <v>12</v>
@@ -4389,7 +4380,7 @@
       <c r="C99" s="8"/>
       <c r="D99" s="11"/>
       <c r="E99" s="8">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F99" s="8"/>
       <c r="G99" s="7"/>
@@ -4427,7 +4418,7 @@
       <c r="C101" s="8"/>
       <c r="D101" s="11"/>
       <c r="E101" s="8">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F101" s="8" t="s">
         <v>12</v>
@@ -4571,7 +4562,7 @@
       <c r="C108" s="10"/>
       <c r="D108" s="10"/>
       <c r="E108" s="10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F108" s="10" t="s">
         <v>12</v>
@@ -4613,7 +4604,7 @@
       <c r="C110" s="10"/>
       <c r="D110" s="10"/>
       <c r="E110" s="10">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F110" s="10"/>
       <c r="G110" s="9"/>
@@ -4651,7 +4642,7 @@
       <c r="C112" s="10"/>
       <c r="D112" s="10"/>
       <c r="E112" s="10">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="F112" s="10" t="s">
         <v>12</v>
@@ -4939,7 +4930,7 @@
       <c r="C126" s="10"/>
       <c r="D126" s="10"/>
       <c r="E126" s="10">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F126" s="10" t="s">
         <v>12</v>
@@ -5162,44 +5153,6 @@
       <c r="F136" s="10"/>
       <c r="G136" s="9"/>
       <c r="H136" s="10"/>
-    </row>
-    <row r="137" spans="1:8">
-      <c r="A137" s="10">
-        <v>136</v>
-      </c>
-      <c r="B137" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C137" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D137" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E137" s="8"/>
-      <c r="F137" s="8" t="s">
-        <v>262</v>
-      </c>
-      <c r="G137" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="H137" s="8"/>
-    </row>
-    <row r="138" spans="1:8">
-      <c r="A138" s="10">
-        <v>137</v>
-      </c>
-      <c r="B138" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C138" s="10"/>
-      <c r="D138" s="10"/>
-      <c r="E138" s="10">
-        <v>4</v>
-      </c>
-      <c r="F138" s="10"/>
-      <c r="G138" s="9"/>
-      <c r="H138" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="7">
@@ -5212,7 +5165,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C44 C47 C65 C69 C93 C96 C100 C111 C27:C33">
       <formula1>[4]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46 B47 B48 B49 B50 B51 B63 B67 B68 B91 B92 B98 B99 B109 B110 B118 B119 B1:B3 B16:B36 B37:B45 B52:B53 B54:B62 B64:B66 B69:B70 B74:B90 B93:B94 B95:B97 B100:B101 B102:B106 B107:B108 B111:B112 B113:B116 B121:B136 B137:B138">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46 B47 B48 B49 B50 B51 B63 B67 B68 B91 B92 B98 B99 B109 B110 B118 B119 B1:B3 B16:B36 B37:B45 B52:B53 B54:B62 B64:B66 B69:B70 B74:B90 B93:B94 B95:B97 B100:B101 B102:B106 B107:B108 B111:B112 B113:B116 B121:B136">
       <formula1/>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C89">
@@ -5252,7 +5205,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5260,20 +5213,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C3" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5284,20 +5237,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -5305,42 +5258,42 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C8" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="C11" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="3:3">
@@ -5355,12 +5308,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -5370,17 +5323,17 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="21" spans="3:3">
@@ -5390,35 +5343,35 @@
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -5428,152 +5381,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -5583,37 +5536,37 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="67" spans="3:3">
@@ -5623,164 +5576,164 @@
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -5795,7 +5748,7 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Save_Back_Front_Navi.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Save_Back_Front_Navi.xlsx
@@ -17,6 +17,7 @@
     <externalReference r:id="rId7"/>
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
+    <externalReference r:id="rId10"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358">
   <si>
     <t>Step No</t>
   </si>
@@ -378,12 +379,12 @@
     <t>CONTACT_PNONE_NUMBER</t>
   </si>
   <si>
+    <t>SelectByIndex</t>
+  </si>
+  <si>
     <t>CONTACT_SEQUENCE</t>
   </si>
   <si>
-    <t>primary</t>
-  </si>
-  <si>
     <t>APP_AUTHORIZE_PERSON_NO</t>
   </si>
   <si>
@@ -898,9 +899,6 @@
   </si>
   <si>
     <t>SelectCheckBox</t>
-  </si>
-  <si>
-    <t>SelectByIndex</t>
   </si>
   <si>
     <t>SelectByValue</t>
@@ -1115,10 +1113,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1161,23 +1159,16 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1192,7 +1183,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1200,6 +1198,38 @@
     <font>
       <b/>
       <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1215,7 +1245,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1229,28 +1281,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1259,42 +1289,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1326,7 +1324,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1344,13 +1456,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1362,55 +1486,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1422,91 +1498,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1560,16 +1558,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1598,35 +1596,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1642,24 +1631,33 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1677,134 +1675,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1820,6 +1818,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1957,6 +1956,21 @@
 </file>
 
 <file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="DataList"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0" refreshError="1"/>
+      <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink7.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -2249,8 +2263,8 @@
   <sheetPr/>
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="A137" sqref="$A137:$XFD138"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3184,17 +3198,17 @@
       <c r="A43" s="10">
         <v>42</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C43" s="8" t="s">
+      <c r="B43" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="C43" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D43" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="E43" s="8" t="s">
+      <c r="D43" s="15" t="s">
         <v>116</v>
+      </c>
+      <c r="E43" s="15">
+        <v>1</v>
       </c>
       <c r="F43" s="8"/>
       <c r="G43" s="7"/>
@@ -5155,17 +5169,20 @@
       <c r="H136" s="10"/>
     </row>
   </sheetData>
-  <dataValidations count="7">
+  <dataValidations count="8">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 B4:B13 B14:B15 B71:B73 C7:C9 C14:C15 C71:C73">
       <formula1>[1]DataList!#REF!</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43 C43">
+      <formula1>[7]DataList!#REF!</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C44 C47 C65 C69 C93 C96 C100 C111 C27:C33">
       <formula1>[4]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46 B47 B48 B49 B50 B51 B63 B67 B68 B91 B92 B98 B99 B109 B110 B118 B119 B1:B3 B16:B36 B37:B45 B52:B53 B54:B62 B64:B66 B69:B70 B74:B90 B93:B94 B95:B97 B100:B101 B102:B106 B107:B108 B111:B112 B113:B116 B121:B136">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46 B47 B48 B49 B50 B51 B63 B67 B68 B91 B92 B98 B99 B109 B110 B118 B119 B1:B3 B16:B36 B37:B42 B44:B45 B52:B53 B54:B62 B64:B66 B69:B70 B74:B90 B93:B94 B95:B97 B100:B101 B102:B106 B107:B108 B111:B112 B113:B116 B121:B136">
       <formula1/>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C89">
@@ -5366,12 +5383,12 @@
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>289</v>
+        <v>115</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -5381,152 +5398,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -5536,37 +5553,37 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="67" spans="3:3">
@@ -5576,22 +5593,22 @@
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D71" s="2" t="s">
         <v>274</v>
@@ -5599,12 +5616,12 @@
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D73" s="2" t="s">
         <v>274</v>
@@ -5612,27 +5629,27 @@
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>274</v>
@@ -5640,7 +5657,7 @@
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>274</v>
@@ -5648,92 +5665,92 @@
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -5748,7 +5765,7 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Save_Back_Front_Navi.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Save_Back_Front_Navi.xlsx
@@ -18,6 +18,7 @@
     <externalReference r:id="rId8"/>
     <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355">
   <si>
     <t>Step No</t>
   </si>
@@ -520,9 +521,6 @@
     <t>APP_PLANTYPE</t>
   </si>
   <si>
-    <t>EPO</t>
-  </si>
-  <si>
     <t>Select Plan type</t>
   </si>
   <si>
@@ -544,9 +542,6 @@
     <t>APP_INS_TYPE</t>
   </si>
   <si>
-    <t>Medicare</t>
-  </si>
-  <si>
     <t>Insurance type selected</t>
   </si>
   <si>
@@ -647,9 +642,6 @@
   </si>
   <si>
     <t>PRIMAY_DIAGNOSIS</t>
-  </si>
-  <si>
-    <t>Other</t>
   </si>
   <si>
     <t>Type Primary Diagnosis</t>
@@ -1113,10 +1105,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1159,9 +1151,16 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1182,62 +1181,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1252,7 +1198,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1262,6 +1208,44 @@
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1275,15 +1259,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1297,9 +1273,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1324,6 +1316,114 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1336,37 +1436,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1378,91 +1454,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1480,36 +1478,30 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1557,17 +1549,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.399975585192419"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4" tint="0.399975585192419"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1598,9 +1586,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1620,13 +1610,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1657,7 +1660,7 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1675,134 +1678,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1819,6 +1822,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1980,6 +1984,21 @@
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
       <sheetData sheetId="1" refreshError="1"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink8.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="DataList"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -2263,8 +2282,8 @@
   <sheetPr/>
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43:E43"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="F93" sqref="F93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3842,8 +3861,8 @@
       <c r="A74" s="10">
         <v>73</v>
       </c>
-      <c r="B74" s="10" t="s">
-        <v>42</v>
+      <c r="B74" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="C74" s="10" t="s">
         <v>20</v>
@@ -3851,14 +3870,14 @@
       <c r="D74" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="E74" s="10" t="s">
+      <c r="E74" s="10">
+        <v>1</v>
+      </c>
+      <c r="F74" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="F74" s="10" t="s">
+      <c r="G74" s="9" t="s">
         <v>163</v>
-      </c>
-      <c r="G74" s="9" t="s">
-        <v>164</v>
       </c>
       <c r="H74" s="10"/>
     </row>
@@ -3873,16 +3892,16 @@
         <v>15</v>
       </c>
       <c r="D75" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E75" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="E75" s="8" t="s">
+      <c r="F75" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="F75" s="8" t="s">
+      <c r="G75" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="G75" s="7" t="s">
-        <v>168</v>
       </c>
       <c r="H75" s="8"/>
     </row>
@@ -3890,23 +3909,23 @@
       <c r="A76" s="10">
         <v>75</v>
       </c>
-      <c r="B76" s="10" t="s">
-        <v>42</v>
+      <c r="B76" s="16" t="s">
+        <v>115</v>
       </c>
       <c r="C76" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>170</v>
+        <v>168</v>
+      </c>
+      <c r="E76" s="10">
+        <v>1</v>
       </c>
       <c r="F76" s="10" t="s">
         <v>159</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H76" s="10"/>
     </row>
@@ -3921,16 +3940,16 @@
         <v>15</v>
       </c>
       <c r="D77" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="E77" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="F77" s="8" t="s">
         <v>172</v>
       </c>
-      <c r="E77" s="8" t="s">
+      <c r="G77" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F77" s="8" t="s">
-        <v>174</v>
-      </c>
-      <c r="G77" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H77" s="8"/>
     </row>
@@ -3945,16 +3964,16 @@
         <v>15</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E78" s="10">
         <v>1235647899</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="H78" s="10"/>
     </row>
@@ -3969,7 +3988,7 @@
         <v>20</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
@@ -3987,14 +4006,14 @@
         <v>20</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E80" s="10"/>
       <c r="F80" s="10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G80" s="9" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="H80" s="10"/>
     </row>
@@ -4009,16 +4028,16 @@
         <v>15</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E81" s="8">
         <v>97890456789</v>
       </c>
       <c r="F81" s="8" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G81" s="7" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="H81" s="8"/>
     </row>
@@ -4033,14 +4052,14 @@
         <v>20</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="E82" s="10"/>
       <c r="F82" s="10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G82" s="9" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H82" s="10"/>
     </row>
@@ -4055,16 +4074,16 @@
         <v>20</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E83" s="8">
         <v>1230</v>
       </c>
       <c r="F83" s="8" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G83" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H83" s="8"/>
     </row>
@@ -4079,16 +4098,16 @@
         <v>20</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E84" s="10">
         <v>1550</v>
       </c>
       <c r="F84" s="10" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H84" s="10"/>
     </row>
@@ -4103,14 +4122,14 @@
         <v>20</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="E85" s="8"/>
       <c r="F85" s="8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G85" s="7" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="H85" s="8"/>
     </row>
@@ -4125,14 +4144,14 @@
         <v>20</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E86" s="10"/>
       <c r="F86" s="10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G86" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H86" s="10"/>
     </row>
@@ -4147,14 +4166,14 @@
         <v>20</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E87" s="8"/>
       <c r="F87" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G87" s="7" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H87" s="8"/>
     </row>
@@ -4169,14 +4188,14 @@
         <v>20</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E88" s="10"/>
       <c r="F88" s="10" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H88" s="10"/>
     </row>
@@ -4313,7 +4332,7 @@
         <v>20</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
@@ -4453,16 +4472,16 @@
         <v>20</v>
       </c>
       <c r="D102" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="E102" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F102" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="G102" s="9" t="s">
         <v>204</v>
-      </c>
-      <c r="E102" s="10" t="s">
-        <v>205</v>
-      </c>
-      <c r="F102" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="G102" s="9" t="s">
-        <v>207</v>
       </c>
       <c r="H102" s="10"/>
     </row>
@@ -4493,10 +4512,10 @@
       <c r="D104" s="10"/>
       <c r="E104" s="10"/>
       <c r="F104" s="10" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G104" s="9" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="H104" s="10"/>
     </row>
@@ -4511,14 +4530,14 @@
         <v>20</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="E105" s="8"/>
       <c r="F105" s="8" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G105" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H105" s="8"/>
     </row>
@@ -4533,14 +4552,14 @@
         <v>20</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E106" s="10"/>
       <c r="F106" s="10" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G106" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="H106" s="10"/>
     </row>
@@ -4677,14 +4696,14 @@
         <v>20</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E113" s="8"/>
       <c r="F113" s="8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G113" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="H113" s="8"/>
     </row>
@@ -4715,7 +4734,7 @@
         <v>20</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
@@ -4749,14 +4768,14 @@
         <v>20</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E117" s="8"/>
       <c r="F117" s="8" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G117" s="7" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H117" s="8"/>
     </row>
@@ -4773,10 +4792,10 @@
         <v>3</v>
       </c>
       <c r="F118" s="10" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G118" s="9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H118" s="10"/>
     </row>
@@ -4791,14 +4810,14 @@
         <v>20</v>
       </c>
       <c r="D119" s="11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E119" s="8"/>
       <c r="F119" s="8" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G119" s="7" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="H119" s="8"/>
     </row>
@@ -4813,14 +4832,14 @@
         <v>20</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="E120" s="10"/>
       <c r="F120" s="10" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G120" s="9" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H120" s="10"/>
     </row>
@@ -4851,16 +4870,16 @@
         <v>15</v>
       </c>
       <c r="D122" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="E122" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="F122" s="10" t="s">
+        <v>227</v>
+      </c>
+      <c r="G122" s="9" t="s">
         <v>228</v>
-      </c>
-      <c r="E122" s="10" t="s">
-        <v>229</v>
-      </c>
-      <c r="F122" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="G122" s="9" t="s">
-        <v>231</v>
       </c>
       <c r="H122" s="10"/>
     </row>
@@ -4875,16 +4894,16 @@
         <v>15</v>
       </c>
       <c r="D123" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="E123" s="8" t="s">
+        <v>230</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>231</v>
+      </c>
+      <c r="G123" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>233</v>
-      </c>
-      <c r="F123" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="G123" s="7" t="s">
-        <v>235</v>
       </c>
       <c r="H123" s="8"/>
     </row>
@@ -4899,7 +4918,7 @@
         <v>15</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="E124" s="10">
         <v>9889656446</v>
@@ -4923,14 +4942,14 @@
         <v>15</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="E125" s="8"/>
       <c r="F125" s="8" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G125" s="7" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H125" s="8"/>
     </row>
@@ -4959,20 +4978,20 @@
         <v>126</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C127" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="E127" s="8"/>
       <c r="F127" s="8" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G127" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H127" s="8"/>
     </row>
@@ -4981,20 +5000,20 @@
         <v>127</v>
       </c>
       <c r="B128" s="10" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C128" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="E128" s="10"/>
       <c r="F128" s="10" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H128" s="10"/>
     </row>
@@ -5003,20 +5022,20 @@
         <v>128</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C129" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="E129" s="8"/>
       <c r="F129" s="8" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G129" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H129" s="8"/>
     </row>
@@ -5025,20 +5044,20 @@
         <v>129</v>
       </c>
       <c r="B130" s="10" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C130" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E130" s="10"/>
       <c r="F130" s="10" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H130" s="10"/>
     </row>
@@ -5047,20 +5066,20 @@
         <v>130</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C131" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E131" s="8"/>
       <c r="F131" s="8" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G131" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H131" s="8"/>
     </row>
@@ -5069,20 +5088,20 @@
         <v>131</v>
       </c>
       <c r="B132" s="10" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C132" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E132" s="10"/>
       <c r="F132" s="10" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H132" s="10"/>
     </row>
@@ -5091,20 +5110,20 @@
         <v>132</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C133" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E133" s="8"/>
       <c r="F133" s="8" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G133" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H133" s="8"/>
     </row>
@@ -5113,20 +5132,20 @@
         <v>133</v>
       </c>
       <c r="B134" s="10" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C134" s="10" t="s">
         <v>20</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E134" s="10"/>
       <c r="F134" s="10" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="H134" s="10"/>
     </row>
@@ -5141,14 +5160,14 @@
         <v>20</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E135" s="8"/>
       <c r="F135" s="8" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G135" s="7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="H135" s="8"/>
     </row>
@@ -5169,7 +5188,7 @@
       <c r="H136" s="10"/>
     </row>
   </sheetData>
-  <dataValidations count="8">
+  <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
@@ -5182,8 +5201,11 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C44 C47 C65 C69 C93 C96 C100 C111 C27:C33">
       <formula1>[4]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46 B47 B48 B49 B50 B51 B63 B67 B68 B91 B92 B98 B99 B109 B110 B118 B119 B1:B3 B16:B36 B37:B42 B44:B45 B52:B53 B54:B62 B64:B66 B69:B70 B74:B90 B93:B94 B95:B97 B100:B101 B102:B106 B107:B108 B111:B112 B113:B116 B121:B136">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46 B47 B48 B49 B50 B51 B63 B67 B68 B75 B91 B92 B98 B99 B109 B110 B118 B119 B1:B3 B16:B36 B37:B42 B44:B45 B52:B53 B54:B62 B64:B66 B69:B70 B77:B90 B93:B94 B95:B97 B100:B101 B102:B106 B107:B108 B111:B112 B113:B116 B121:B136">
       <formula1/>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74 B76">
+      <formula1>[8]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C89">
       <formula1>[6]DataList!#REF!</formula1>
@@ -5222,7 +5244,7 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -5230,20 +5252,20 @@
         <v>15</v>
       </c>
       <c r="C2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C3" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5254,20 +5276,20 @@
         <v>20</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C7" t="s">
         <v>19</v>
@@ -5275,42 +5297,42 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C8" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C11" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="13" spans="3:3">
@@ -5325,12 +5347,12 @@
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="3:3">
@@ -5340,45 +5362,45 @@
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="26" spans="3:3">
@@ -5388,7 +5410,7 @@
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
     </row>
     <row r="28" spans="3:3">
@@ -5398,152 +5420,152 @@
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="59" spans="3:3">
@@ -5553,37 +5575,37 @@
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="67" spans="3:3">
@@ -5593,164 +5615,164 @@
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -5765,7 +5787,7 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Save_Back_Front_Navi.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Save_Back_Front_Navi.xlsx
@@ -167,7 +167,7 @@
     <t>PATIENT_FUND_NAME</t>
   </si>
   <si>
-    <t>Breast Cancer Silo*</t>
+    <t>Hepatitis C***</t>
   </si>
   <si>
     <t>Enter fund name</t>
@@ -1105,10 +1105,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1151,23 +1151,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1183,7 +1169,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1197,24 +1213,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1226,9 +1229,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1243,55 +1289,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1316,7 +1316,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1328,7 +1364,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1346,85 +1448,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1436,19 +1466,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1460,25 +1478,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1490,18 +1496,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1549,26 +1549,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.399975585192419"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1586,26 +1566,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1621,6 +1584,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1644,6 +1618,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -1660,13 +1649,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1678,134 +1667,134 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1822,7 +1811,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2282,8 +2270,8 @@
   <sheetPr/>
   <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="F93" sqref="F93"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -3861,7 +3849,7 @@
       <c r="A74" s="10">
         <v>73</v>
       </c>
-      <c r="B74" s="16" t="s">
+      <c r="B74" s="15" t="s">
         <v>115</v>
       </c>
       <c r="C74" s="10" t="s">
@@ -3909,7 +3897,7 @@
       <c r="A76" s="10">
         <v>75</v>
       </c>
-      <c r="B76" s="16" t="s">
+      <c r="B76" s="15" t="s">
         <v>115</v>
       </c>
       <c r="C76" s="10" t="s">

--- a/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Save_Back_Front_Navi.xlsx
+++ b/QA/testcases/CPR/Pharmacy/Phar_Patient_App_Save_Back_Front_Navi.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28680" windowHeight="13650"/>
+    <workbookView windowWidth="27795" windowHeight="13215"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336">
   <si>
     <t>Step No</t>
   </si>
@@ -80,36 +80,33 @@
     <t>SSN9Digit</t>
   </si>
   <si>
+    <t>Enter SSN</t>
+  </si>
+  <si>
+    <t>SSN entered</t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>ByXPath</t>
+  </si>
+  <si>
+    <t>SEARCH_BUTTON_LINK</t>
+  </si>
+  <si>
+    <t>Click Search</t>
+  </si>
+  <si>
+    <t>Search button clicked</t>
+  </si>
+  <si>
+    <t>TypeDynamicAlpha</t>
+  </si>
+  <si>
     <t>ByID</t>
   </si>
   <si>
-    <t>SSN_FIELD</t>
-  </si>
-  <si>
-    <t>Enter SSN</t>
-  </si>
-  <si>
-    <t>SSN entered</t>
-  </si>
-  <si>
-    <t>Click</t>
-  </si>
-  <si>
-    <t>ByXPath</t>
-  </si>
-  <si>
-    <t>SEARCH_BUTTON_LINK</t>
-  </si>
-  <si>
-    <t>Click Search</t>
-  </si>
-  <si>
-    <t>Search button clicked</t>
-  </si>
-  <si>
-    <t>TypeDynamicAlpha</t>
-  </si>
-  <si>
     <t>FIRST_NAME_FIELD</t>
   </si>
   <si>
@@ -299,9 +296,6 @@
     <t>Marital Status selected</t>
   </si>
   <si>
-    <t>Are you residing in the United States or a United States territory?</t>
-  </si>
-  <si>
     <t>NEXT_BUTTON</t>
   </si>
   <si>
@@ -746,139 +740,88 @@
     <t>Sign and submit button clicked</t>
   </si>
   <si>
+    <t>RETURN_HOME</t>
+  </si>
+  <si>
+    <t>Click on return home</t>
+  </si>
+  <si>
+    <t>Return home clicked</t>
+  </si>
+  <si>
+    <t>Actions</t>
+  </si>
+  <si>
+    <t>GetUrl</t>
+  </si>
+  <si>
+    <t>ByName</t>
+  </si>
+  <si>
+    <t>NavigateToURL</t>
+  </si>
+  <si>
+    <t>ByOrName</t>
+  </si>
+  <si>
+    <t>WaitTime</t>
+  </si>
+  <si>
+    <t>ByLinkText</t>
+  </si>
+  <si>
+    <t>Maximize</t>
+  </si>
+  <si>
+    <t>ByTagName</t>
+  </si>
+  <si>
+    <t>ByClassName</t>
+  </si>
+  <si>
+    <t>ActionClick</t>
+  </si>
+  <si>
+    <t>ByCssSelector</t>
+  </si>
+  <si>
+    <t>JsClick</t>
+  </si>
+  <si>
+    <t>Normal Xpath</t>
+  </si>
+  <si>
+    <t>ByPartialLinkText</t>
+  </si>
+  <si>
+    <t>DoubleClick</t>
+  </si>
+  <si>
+    <t>Xpath</t>
+  </si>
+  <si>
+    <t>ClickAt</t>
+  </si>
+  <si>
+    <t>ClickAndHold</t>
+  </si>
+  <si>
+    <t>ClearAndType</t>
+  </si>
+  <si>
+    <t>ActionType</t>
+  </si>
+  <si>
+    <t>Submit</t>
+  </si>
+  <si>
+    <t>MouseOver</t>
+  </si>
+  <si>
+    <t>MouseOverAndClick</t>
+  </si>
+  <si>
     <t>GetText</t>
-  </si>
-  <si>
-    <t>SUBMIT_PATIENT_NAME</t>
-  </si>
-  <si>
-    <t>Get Patient Name</t>
-  </si>
-  <si>
-    <t>Retrieved succussfully</t>
-  </si>
-  <si>
-    <t>SUBMIT_FUND_NAME</t>
-  </si>
-  <si>
-    <t>Get Fund Name</t>
-  </si>
-  <si>
-    <t>SUBMIT_AWARD_PERIOD_FROM</t>
-  </si>
-  <si>
-    <t>Get award period from</t>
-  </si>
-  <si>
-    <t>SUBMIT_AWARD_PERIOD_TO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Get award period to </t>
-  </si>
-  <si>
-    <t>SUBMIT_CARDHOLDER</t>
-  </si>
-  <si>
-    <t>Get cardholder</t>
-  </si>
-  <si>
-    <t>SUBMIT_BIN</t>
-  </si>
-  <si>
-    <t>Get BIN</t>
-  </si>
-  <si>
-    <t>SUBMIT_PCN</t>
-  </si>
-  <si>
-    <t>Get PCN</t>
-  </si>
-  <si>
-    <t>SUBMIT_GROUP</t>
-  </si>
-  <si>
-    <t>Get group</t>
-  </si>
-  <si>
-    <t>RETURN_HOME</t>
-  </si>
-  <si>
-    <t>Click on return home</t>
-  </si>
-  <si>
-    <t>Return home clicked</t>
-  </si>
-  <si>
-    <t>Actions</t>
-  </si>
-  <si>
-    <t>GetUrl</t>
-  </si>
-  <si>
-    <t>ByName</t>
-  </si>
-  <si>
-    <t>NavigateToURL</t>
-  </si>
-  <si>
-    <t>ByOrName</t>
-  </si>
-  <si>
-    <t>WaitTime</t>
-  </si>
-  <si>
-    <t>ByLinkText</t>
-  </si>
-  <si>
-    <t>Maximize</t>
-  </si>
-  <si>
-    <t>ByTagName</t>
-  </si>
-  <si>
-    <t>ByClassName</t>
-  </si>
-  <si>
-    <t>ActionClick</t>
-  </si>
-  <si>
-    <t>ByCssSelector</t>
-  </si>
-  <si>
-    <t>JsClick</t>
-  </si>
-  <si>
-    <t>Normal Xpath</t>
-  </si>
-  <si>
-    <t>ByPartialLinkText</t>
-  </si>
-  <si>
-    <t>DoubleClick</t>
-  </si>
-  <si>
-    <t>Xpath</t>
-  </si>
-  <si>
-    <t>ClickAt</t>
-  </si>
-  <si>
-    <t>ClickAndHold</t>
-  </si>
-  <si>
-    <t>ClearAndType</t>
-  </si>
-  <si>
-    <t>ActionType</t>
-  </si>
-  <si>
-    <t>Submit</t>
-  </si>
-  <si>
-    <t>MouseOver</t>
-  </si>
-  <si>
-    <t>MouseOverAndClick</t>
   </si>
   <si>
     <t>GetAttribute</t>
@@ -1105,10 +1048,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1151,6 +1094,44 @@
       <charset val="134"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1169,15 +1150,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1186,81 +1166,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1280,6 +1185,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
@@ -1290,6 +1211,28 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1316,43 +1259,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1364,25 +1295,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1400,7 +1331,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1412,13 +1349,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1430,43 +1421,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1478,25 +1439,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1573,6 +1516,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1590,44 +1568,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1649,13 +1592,13 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1667,130 +1610,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2268,10 +2211,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:H127"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="B127" sqref="B127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85714285714286" defaultRowHeight="15" outlineLevelCol="7"/>
@@ -2358,18 +2301,14 @@
       <c r="B4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H4" s="10"/>
     </row>
@@ -2378,20 +2317,20 @@
         <v>4</v>
       </c>
       <c r="B5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="8" t="s">
         <v>19</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>21</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H5" s="8"/>
     </row>
@@ -2416,22 +2355,22 @@
         <v>6</v>
       </c>
       <c r="B7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="8" t="s">
+      <c r="E7" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="F7" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="8" t="s">
+      <c r="G7" s="8" t="s">
         <v>27</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>28</v>
       </c>
       <c r="H7" s="8"/>
     </row>
@@ -2440,22 +2379,22 @@
         <v>7</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="F8" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="G8" s="10" t="s">
         <v>31</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>32</v>
       </c>
       <c r="H8" s="10"/>
     </row>
@@ -2464,20 +2403,20 @@
         <v>8</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="8" t="s">
         <v>34</v>
-      </c>
-      <c r="G9" s="8" t="s">
-        <v>35</v>
       </c>
       <c r="H9" s="8"/>
     </row>
@@ -2486,13 +2425,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -2520,20 +2459,20 @@
         <v>11</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H12" s="8"/>
     </row>
@@ -2558,20 +2497,20 @@
         <v>13</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H14" s="8"/>
     </row>
@@ -2588,7 +2527,7 @@
         <v>10</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>13</v>
@@ -2600,22 +2539,22 @@
         <v>15</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="11" t="s">
+      <c r="E16" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="F16" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="F16" s="8" t="s">
+      <c r="G16" s="8" t="s">
         <v>45</v>
-      </c>
-      <c r="G16" s="8" t="s">
-        <v>46</v>
       </c>
       <c r="H16" s="8"/>
     </row>
@@ -2640,22 +2579,22 @@
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="11" t="s">
         <v>47</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>48</v>
       </c>
       <c r="E18" s="8">
         <v>2</v>
       </c>
       <c r="F18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" s="8" t="s">
         <v>49</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>50</v>
       </c>
       <c r="H18" s="8"/>
     </row>
@@ -2664,22 +2603,22 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E19" s="10">
         <v>1000</v>
       </c>
       <c r="F19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>53</v>
       </c>
       <c r="H19" s="10"/>
     </row>
@@ -2688,20 +2627,20 @@
         <v>19</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G20" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="G20" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="H20" s="8"/>
     </row>
@@ -2710,20 +2649,20 @@
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G21" s="10" t="s">
         <v>55</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>56</v>
       </c>
       <c r="H21" s="10"/>
     </row>
@@ -2732,20 +2671,20 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D22" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E22" s="8"/>
       <c r="F22" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G22" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="G22" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="H22" s="8"/>
     </row>
@@ -2754,22 +2693,22 @@
         <v>22</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E23" s="10">
         <v>10001</v>
       </c>
       <c r="F23" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G23" s="10" t="s">
         <v>60</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>61</v>
       </c>
       <c r="H23" s="10"/>
     </row>
@@ -2778,20 +2717,20 @@
         <v>23</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E24" s="8"/>
       <c r="F24" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="G24" s="8" t="s">
         <v>63</v>
-      </c>
-      <c r="G24" s="8" t="s">
-        <v>64</v>
       </c>
       <c r="H24" s="8"/>
     </row>
@@ -2808,7 +2747,7 @@
         <v>10</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="G25" s="10" t="s">
         <v>13</v>
@@ -2820,16 +2759,16 @@
         <v>25</v>
       </c>
       <c r="B26" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D26" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="C26" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D26" s="11" t="s">
+      <c r="E26" s="8" t="s">
         <v>66</v>
-      </c>
-      <c r="E26" s="8" t="s">
-        <v>67</v>
       </c>
       <c r="F26" s="8"/>
       <c r="G26" s="8"/>
@@ -2840,22 +2779,22 @@
         <v>26</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D27" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="E27" s="10" t="s">
+      <c r="F27" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="F27" s="10" t="s">
+      <c r="G27" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>71</v>
       </c>
       <c r="H27" s="10"/>
     </row>
@@ -2864,22 +2803,22 @@
         <v>27</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D28" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="E28" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="8" t="s">
+      <c r="F28" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="G28" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="G28" s="8" t="s">
-        <v>75</v>
       </c>
       <c r="H28" s="8"/>
     </row>
@@ -2888,22 +2827,22 @@
         <v>28</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D29" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="F29" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="F29" s="10" t="s">
+      <c r="G29" s="10" t="s">
         <v>78</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>79</v>
       </c>
       <c r="H29" s="10"/>
     </row>
@@ -2912,22 +2851,22 @@
         <v>29</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D30" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E30" s="8" t="s">
+      <c r="F30" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="G30" s="8" t="s">
         <v>82</v>
-      </c>
-      <c r="G30" s="8" t="s">
-        <v>83</v>
       </c>
       <c r="H30" s="8"/>
     </row>
@@ -2936,22 +2875,22 @@
         <v>30</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D31" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="F31" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="G31" s="9" t="s">
         <v>86</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>87</v>
       </c>
       <c r="H31" s="10"/>
     </row>
@@ -2959,109 +2898,111 @@
       <c r="A32" s="10">
         <v>31</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8" t="s">
+      <c r="B32" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G32" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="H32" s="8"/>
+      <c r="G32" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H32" s="10"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="10">
         <v>32</v>
       </c>
-      <c r="B33" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="H33" s="10"/>
+      <c r="B33" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="8">
+        <v>10</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H33" s="8"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="10">
         <v>33</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34" s="8"/>
-      <c r="D34" s="11"/>
-      <c r="E34" s="8">
-        <v>10</v>
-      </c>
-      <c r="F34" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G34" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H34" s="8"/>
+      <c r="B34" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="H34" s="10"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="10">
         <v>34</v>
       </c>
-      <c r="B35" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E35" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="F35" s="10" t="s">
+      <c r="B35" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D35" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="G35" s="9" t="s">
+      <c r="E35" s="8"/>
+      <c r="F35" s="8" t="s">
         <v>95</v>
       </c>
-      <c r="H35" s="10"/>
+      <c r="G35" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H35" s="8"/>
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="10">
         <v>35</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="E36" s="8"/>
+        <v>97</v>
+      </c>
+      <c r="E36" s="8" t="s">
+        <v>98</v>
+      </c>
       <c r="F36" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H36" s="8"/>
     </row>
@@ -3069,2133 +3010,1933 @@
       <c r="A37" s="10">
         <v>36</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D37" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="E37" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F37" s="8" t="s">
+      <c r="B37" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D37" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="E37" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="H37" s="8"/>
+      <c r="F37" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H37" s="10"/>
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="10">
         <v>37</v>
       </c>
-      <c r="B38" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C38" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D38" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="E38" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="F38" s="10" t="s">
+      <c r="B38" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D38" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="G38" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="H38" s="10"/>
+      <c r="E38" s="8">
+        <v>10001</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H38" s="8"/>
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="10">
         <v>38</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D39" s="11" t="s">
+      <c r="B39" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="E39" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="E39" s="8">
-        <v>10001</v>
-      </c>
-      <c r="F39" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G39" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H39" s="8"/>
+      <c r="F39" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="H39" s="10"/>
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="10">
         <v>39</v>
       </c>
-      <c r="B40" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="F40" s="10" t="s">
+      <c r="B40" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D40" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="E40" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="H40" s="10"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="8"/>
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="10">
         <v>40</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D41" s="11" t="s">
+      <c r="B41" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="E41" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="7"/>
-      <c r="H41" s="8"/>
+      <c r="E41" s="10">
+        <v>9876543210</v>
+      </c>
+      <c r="F41" s="10"/>
+      <c r="G41" s="9"/>
+      <c r="H41" s="10"/>
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="10">
         <v>41</v>
       </c>
-      <c r="B42" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C42" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="10" t="s">
+      <c r="B42" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D42" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="E42" s="10">
-        <v>9876543210</v>
-      </c>
-      <c r="F42" s="10"/>
-      <c r="G42" s="9"/>
-      <c r="H42" s="10"/>
+      <c r="E42" s="15">
+        <v>1</v>
+      </c>
+      <c r="F42" s="8"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="8"/>
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="10">
         <v>42</v>
       </c>
-      <c r="B43" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D43" s="15" t="s">
-        <v>116</v>
-      </c>
-      <c r="E43" s="15">
-        <v>1</v>
-      </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="8"/>
+      <c r="B43" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H43" s="10"/>
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="10">
         <v>43</v>
       </c>
-      <c r="B44" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C44" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D44" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="H44" s="10"/>
+      <c r="B44" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="11"/>
+      <c r="E44" s="8">
+        <v>10</v>
+      </c>
+      <c r="F44" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H44" s="8"/>
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="10">
         <v>44</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C45" s="8"/>
-      <c r="D45" s="11"/>
-      <c r="E45" s="8">
-        <v>10</v>
-      </c>
-      <c r="F45" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H45" s="8"/>
+      <c r="B45" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="10"/>
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="10">
         <v>45</v>
       </c>
-      <c r="B46" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="10"/>
+      <c r="B46" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D46" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H46" s="8"/>
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="10">
         <v>46</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D47" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E47" s="8"/>
-      <c r="F47" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G47" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H47" s="8"/>
+      <c r="B47" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C47" s="10"/>
+      <c r="D47" s="10"/>
+      <c r="E47" s="10">
+        <v>10</v>
+      </c>
+      <c r="F47" s="10"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="10"/>
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="10">
         <v>47</v>
       </c>
-      <c r="B48" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="10"/>
-      <c r="E48" s="10">
-        <v>10</v>
-      </c>
-      <c r="F48" s="10"/>
-      <c r="G48" s="9"/>
-      <c r="H48" s="10"/>
+      <c r="B48" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H48" s="8"/>
     </row>
     <row r="49" spans="1:8">
       <c r="A49" s="10">
         <v>48</v>
       </c>
-      <c r="B49" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C49" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E49" s="8"/>
-      <c r="F49" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="G49" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H49" s="8"/>
+      <c r="B49" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C49" s="10"/>
+      <c r="D49" s="10"/>
+      <c r="E49" s="10">
+        <v>5</v>
+      </c>
+      <c r="F49" s="10"/>
+      <c r="G49" s="9"/>
+      <c r="H49" s="10"/>
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="10">
         <v>49</v>
       </c>
-      <c r="B50" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C50" s="10"/>
-      <c r="D50" s="10"/>
-      <c r="E50" s="10">
-        <v>5</v>
-      </c>
-      <c r="F50" s="10"/>
-      <c r="G50" s="9"/>
-      <c r="H50" s="10"/>
+      <c r="B50" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="H50" s="8"/>
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="10">
         <v>50</v>
       </c>
-      <c r="B51" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8" t="s">
+      <c r="B51" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="G51" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="H51" s="8"/>
+      <c r="E51" s="10"/>
+      <c r="F51" s="10"/>
+      <c r="G51" s="9"/>
+      <c r="H51" s="10"/>
     </row>
     <row r="52" spans="1:8">
       <c r="A52" s="10">
         <v>51</v>
       </c>
-      <c r="B52" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C52" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D52" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="G52" s="9"/>
-      <c r="H52" s="10"/>
+      <c r="B52" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="8">
+        <v>1</v>
+      </c>
+      <c r="F52" s="8"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="8"/>
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="10">
         <v>52</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C53" s="8"/>
-      <c r="D53" s="11"/>
-      <c r="E53" s="8">
-        <v>1</v>
-      </c>
-      <c r="F53" s="8"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="8"/>
+      <c r="B53" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D53" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E53" s="10"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="9"/>
+      <c r="H53" s="10"/>
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="10">
         <v>53</v>
       </c>
-      <c r="B54" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C54" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D54" s="10" t="s">
+      <c r="B54" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="E54" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="E54" s="10"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="9"/>
-      <c r="H54" s="10"/>
+      <c r="F54" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H54" s="8"/>
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="10">
         <v>54</v>
       </c>
-      <c r="B55" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D55" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E55" s="8" t="s">
+      <c r="B55" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D55" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="F55" s="8" t="s">
+      <c r="E55" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="G55" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H55" s="8"/>
+      <c r="F55" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="10"/>
     </row>
     <row r="56" spans="1:8">
       <c r="A56" s="10">
         <v>55</v>
       </c>
-      <c r="B56" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C56" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D56" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="E56" s="10" t="s">
+      <c r="B56" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C56" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="E56" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="G56" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H56" s="10"/>
+      <c r="F56" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H56" s="8"/>
     </row>
     <row r="57" spans="1:8">
       <c r="A57" s="10">
         <v>56</v>
       </c>
-      <c r="B57" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C57" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E57" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="F57" s="8" t="s">
+      <c r="B57" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D57" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="G57" s="7" t="s">
+      <c r="E57" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="H57" s="8"/>
+      <c r="F57" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="H57" s="10"/>
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="10">
         <v>57</v>
       </c>
-      <c r="B58" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C58" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="F58" s="10" t="s">
+      <c r="B58" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="C58" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D58" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="G58" s="9" t="s">
+      <c r="E58" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F58" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="H58" s="10"/>
+      <c r="G58" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="H58" s="8"/>
     </row>
     <row r="59" spans="1:8">
       <c r="A59" s="10">
         <v>58</v>
       </c>
-      <c r="B59" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C59" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D59" s="11" t="s">
+      <c r="B59" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D59" s="10" t="s">
         <v>139</v>
       </c>
-      <c r="E59" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="F59" s="8" t="s">
+      <c r="E59" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F59" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="G59" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="H59" s="8"/>
+      <c r="G59" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="H59" s="10"/>
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="10">
         <v>59</v>
       </c>
-      <c r="B60" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C60" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D60" s="10" t="s">
+      <c r="B60" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C60" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D60" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="E60" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="F60" s="10" t="s">
+      <c r="E60" s="8">
+        <v>10001</v>
+      </c>
+      <c r="F60" s="8" t="s">
         <v>142</v>
       </c>
-      <c r="G60" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="H60" s="10"/>
+      <c r="G60" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="H60" s="8"/>
     </row>
     <row r="61" spans="1:8">
       <c r="A61" s="10">
         <v>60</v>
       </c>
-      <c r="B61" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C61" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D61" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="E61" s="8">
-        <v>10001</v>
-      </c>
-      <c r="F61" s="8" t="s">
+      <c r="B61" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D61" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="E61" s="10">
+        <v>9789123456</v>
+      </c>
+      <c r="F61" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="H61" s="8"/>
+      <c r="G61" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H61" s="10"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="10">
         <v>61</v>
       </c>
-      <c r="B62" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D62" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E62" s="10">
-        <v>9789123456</v>
-      </c>
-      <c r="F62" s="10" t="s">
+      <c r="B62" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="G62" s="9" t="s">
+      <c r="C62" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D62" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="H62" s="10"/>
+      <c r="E62" s="8"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="8"/>
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="10">
         <v>62</v>
       </c>
-      <c r="B63" s="8" t="s">
+      <c r="B63" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="E63" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="C63" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D63" s="11" t="s">
+      <c r="F63" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-      <c r="G63" s="7"/>
-      <c r="H63" s="8"/>
+      <c r="G63" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="H63" s="10"/>
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="10">
         <v>63</v>
       </c>
-      <c r="B64" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C64" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="E64" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="F64" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="G64" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="H64" s="10"/>
+      <c r="B64" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E64" s="8"/>
+      <c r="F64" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H64" s="8"/>
     </row>
     <row r="65" spans="1:8">
       <c r="A65" s="10">
         <v>64</v>
       </c>
-      <c r="B65" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D65" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E65" s="8"/>
-      <c r="F65" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G65" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H65" s="8"/>
-    </row>
-    <row r="66" spans="1:8">
+      <c r="B65" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C65" s="10"/>
+      <c r="D65" s="10"/>
+      <c r="E65" s="10">
+        <v>10</v>
+      </c>
+      <c r="F65" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H65" s="10"/>
+    </row>
+    <row r="66" s="4" customFormat="1" spans="1:8">
       <c r="A66" s="10">
         <v>65</v>
       </c>
-      <c r="B66" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
-      <c r="E66" s="10">
-        <v>10</v>
-      </c>
-      <c r="F66" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H66" s="10"/>
+      <c r="B66" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D66" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E66" s="8"/>
+      <c r="F66" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H66" s="8"/>
     </row>
     <row r="67" s="4" customFormat="1" spans="1:8">
       <c r="A67" s="10">
         <v>66</v>
       </c>
-      <c r="B67" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C67" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E67" s="8"/>
-      <c r="F67" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="G67" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H67" s="8"/>
+      <c r="B67" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C67" s="10"/>
+      <c r="D67" s="10"/>
+      <c r="E67" s="10">
+        <v>5</v>
+      </c>
+      <c r="F67" s="10"/>
+      <c r="G67" s="9"/>
+      <c r="H67" s="10"/>
     </row>
     <row r="68" s="4" customFormat="1" spans="1:8">
       <c r="A68" s="10">
         <v>67</v>
       </c>
-      <c r="B68" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
-      <c r="E68" s="10">
-        <v>5</v>
-      </c>
-      <c r="F68" s="10"/>
-      <c r="G68" s="9"/>
-      <c r="H68" s="10"/>
+      <c r="B68" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E68" s="8"/>
+      <c r="F68" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H68" s="8"/>
     </row>
     <row r="69" s="4" customFormat="1" spans="1:8">
       <c r="A69" s="10">
         <v>68</v>
       </c>
-      <c r="B69" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C69" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D69" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E69" s="8"/>
-      <c r="F69" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G69" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H69" s="8"/>
-    </row>
-    <row r="70" s="4" customFormat="1" spans="1:8">
+      <c r="B69" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="10"/>
+      <c r="D69" s="10"/>
+      <c r="E69" s="10">
+        <v>10</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H69" s="10"/>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="10">
         <v>69</v>
       </c>
-      <c r="B70" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C70" s="10"/>
-      <c r="D70" s="10"/>
-      <c r="E70" s="10">
-        <v>10</v>
-      </c>
-      <c r="F70" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H70" s="10"/>
+      <c r="B70" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>153</v>
+      </c>
+      <c r="F70" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H70" s="8"/>
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="10">
         <v>70</v>
       </c>
-      <c r="B71" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C71" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>154</v>
-      </c>
-      <c r="E71" s="8" t="s">
-        <v>155</v>
-      </c>
-      <c r="F71" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="G71" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="H71" s="8"/>
+      <c r="B71" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C71" s="10"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10">
+        <v>5</v>
+      </c>
+      <c r="F71" s="10"/>
+      <c r="G71" s="9"/>
+      <c r="H71" s="10"/>
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="10">
         <v>71</v>
       </c>
-      <c r="B72" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72" s="10"/>
-      <c r="D72" s="10"/>
-      <c r="E72" s="10">
-        <v>5</v>
-      </c>
-      <c r="F72" s="10"/>
-      <c r="G72" s="9"/>
-      <c r="H72" s="10"/>
+      <c r="B72" s="8" t="s">
+        <v>156</v>
+      </c>
+      <c r="C72" s="8"/>
+      <c r="D72" s="11"/>
+      <c r="E72" s="8"/>
+      <c r="F72" s="8" t="s">
+        <v>157</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H72" s="8"/>
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="10">
         <v>72</v>
       </c>
-      <c r="B73" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="C73" s="8"/>
-      <c r="D73" s="11"/>
-      <c r="E73" s="8"/>
-      <c r="F73" s="8" t="s">
+      <c r="B73" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="G73" s="7" t="s">
+      <c r="E73" s="10">
+        <v>1</v>
+      </c>
+      <c r="F73" s="10" t="s">
         <v>160</v>
       </c>
-      <c r="H73" s="8"/>
+      <c r="G73" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="H73" s="10"/>
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="10">
         <v>73</v>
       </c>
-      <c r="B74" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="E74" s="10">
-        <v>1</v>
-      </c>
-      <c r="F74" s="10" t="s">
+      <c r="B74" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D74" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="G74" s="9" t="s">
+      <c r="E74" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="H74" s="10"/>
+      <c r="F74" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="H74" s="8"/>
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="10">
         <v>74</v>
       </c>
-      <c r="B75" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>164</v>
-      </c>
-      <c r="E75" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="F75" s="8" t="s">
+      <c r="B75" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" s="10" t="s">
         <v>166</v>
       </c>
-      <c r="G75" s="7" t="s">
+      <c r="E75" s="10">
+        <v>1</v>
+      </c>
+      <c r="F75" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="G75" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="H75" s="8"/>
+      <c r="H75" s="10"/>
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="10">
         <v>75</v>
       </c>
-      <c r="B76" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D76" s="10" t="s">
+      <c r="B76" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D76" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="E76" s="10">
-        <v>1</v>
-      </c>
-      <c r="F76" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="G76" s="9" t="s">
+      <c r="E76" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="H76" s="10"/>
+      <c r="F76" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="G76" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="H76" s="8"/>
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="10">
         <v>76</v>
       </c>
-      <c r="B77" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D77" s="11" t="s">
-        <v>170</v>
-      </c>
-      <c r="E77" s="8" t="s">
-        <v>171</v>
-      </c>
-      <c r="F77" s="8" t="s">
+      <c r="B77" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D77" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="G77" s="7" t="s">
+      <c r="E77" s="10">
+        <v>1235647899</v>
+      </c>
+      <c r="F77" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="H77" s="8"/>
+      <c r="G77" s="9" t="s">
+        <v>174</v>
+      </c>
+      <c r="H77" s="10"/>
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="10">
         <v>77</v>
       </c>
-      <c r="B78" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C78" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D78" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="E78" s="10">
-        <v>1235647899</v>
-      </c>
-      <c r="F78" s="10" t="s">
+      <c r="B78" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="G78" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H78" s="10"/>
+      <c r="E78" s="8"/>
+      <c r="F78" s="8"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="8"/>
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="10">
         <v>78</v>
       </c>
-      <c r="B79" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D79" s="11" t="s">
+      <c r="B79" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-      <c r="G79" s="7"/>
-      <c r="H79" s="8"/>
+      <c r="G79" s="9" t="s">
+        <v>178</v>
+      </c>
+      <c r="H79" s="10"/>
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="10">
         <v>79</v>
       </c>
-      <c r="B80" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C80" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D80" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="E80" s="10"/>
-      <c r="F80" s="10" t="s">
+      <c r="B80" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D80" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="G80" s="9" t="s">
+      <c r="E80" s="8">
+        <v>97890456789</v>
+      </c>
+      <c r="F80" s="8" t="s">
         <v>180</v>
       </c>
-      <c r="H80" s="10"/>
+      <c r="G80" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H80" s="8"/>
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="10">
         <v>80</v>
       </c>
-      <c r="B81" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D81" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="E81" s="8">
-        <v>97890456789</v>
-      </c>
-      <c r="F81" s="8" t="s">
+      <c r="B81" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="G81" s="7" t="s">
+      <c r="E81" s="10"/>
+      <c r="F81" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="H81" s="8"/>
+      <c r="G81" s="9" t="s">
+        <v>184</v>
+      </c>
+      <c r="H81" s="10"/>
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="10">
         <v>81</v>
       </c>
-      <c r="B82" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C82" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D82" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="E82" s="10"/>
-      <c r="F82" s="10" t="s">
+      <c r="B82" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D82" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="G82" s="9" t="s">
+      <c r="E82" s="8">
+        <v>1230</v>
+      </c>
+      <c r="F82" s="8" t="s">
         <v>186</v>
       </c>
-      <c r="H82" s="10"/>
+      <c r="G82" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H82" s="8"/>
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="10">
         <v>82</v>
       </c>
-      <c r="B83" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D83" s="11" t="s">
+      <c r="B83" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D83" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="E83" s="10">
+        <v>1550</v>
+      </c>
+      <c r="F83" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="G83" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="E83" s="8">
-        <v>1230</v>
-      </c>
-      <c r="F83" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="G83" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H83" s="8"/>
+      <c r="H83" s="10"/>
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="10">
         <v>83</v>
       </c>
-      <c r="B84" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C84" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D84" s="10" t="s">
+      <c r="B84" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C84" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" s="11" t="s">
         <v>190</v>
       </c>
-      <c r="E84" s="10">
-        <v>1550</v>
-      </c>
-      <c r="F84" s="10" t="s">
+      <c r="E84" s="8"/>
+      <c r="F84" s="8" t="s">
         <v>191</v>
       </c>
-      <c r="G84" s="9" t="s">
-        <v>189</v>
-      </c>
-      <c r="H84" s="10"/>
+      <c r="G84" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H84" s="8"/>
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="10">
         <v>84</v>
       </c>
-      <c r="B85" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D85" s="11" t="s">
+      <c r="B85" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D85" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="E85" s="8"/>
-      <c r="F85" s="8" t="s">
+      <c r="E85" s="10"/>
+      <c r="F85" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="G85" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="H85" s="8"/>
+      <c r="G85" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="H85" s="10"/>
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="10">
         <v>85</v>
       </c>
-      <c r="B86" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C86" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D86" s="10" t="s">
+      <c r="B86" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D86" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="E86" s="8"/>
+      <c r="F86" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="G86" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="E86" s="10"/>
-      <c r="F86" s="10" t="s">
-        <v>195</v>
-      </c>
-      <c r="G86" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="H86" s="10"/>
+      <c r="H86" s="8"/>
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="10">
         <v>86</v>
       </c>
-      <c r="B87" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D87" s="11" t="s">
+      <c r="B87" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D87" s="10" t="s">
         <v>197</v>
       </c>
-      <c r="E87" s="8"/>
-      <c r="F87" s="8" t="s">
+      <c r="E87" s="10"/>
+      <c r="F87" s="10" t="s">
         <v>198</v>
       </c>
-      <c r="G87" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="H87" s="8"/>
+      <c r="G87" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="H87" s="10"/>
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="10">
         <v>87</v>
       </c>
-      <c r="B88" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C88" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D88" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="E88" s="10"/>
-      <c r="F88" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="G88" s="9" t="s">
-        <v>196</v>
-      </c>
-      <c r="H88" s="10"/>
+      <c r="B88" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E88" s="8"/>
+      <c r="F88" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H88" s="8"/>
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="10">
         <v>88</v>
       </c>
-      <c r="B89" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D89" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E89" s="8"/>
-      <c r="F89" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G89" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H89" s="8"/>
+      <c r="B89" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10"/>
+      <c r="E89" s="10">
+        <v>10</v>
+      </c>
+      <c r="F89" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G89" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H89" s="10"/>
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="10">
         <v>89</v>
       </c>
-      <c r="B90" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10"/>
-      <c r="E90" s="10">
-        <v>10</v>
-      </c>
-      <c r="F90" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G90" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H90" s="10"/>
+      <c r="B90" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D90" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E90" s="8"/>
+      <c r="F90" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H90" s="8"/>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="10">
         <v>90</v>
       </c>
-      <c r="B91" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C91" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D91" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E91" s="8"/>
-      <c r="F91" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="G91" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H91" s="8"/>
+      <c r="B91" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="10">
+        <v>5</v>
+      </c>
+      <c r="F91" s="10"/>
+      <c r="G91" s="9"/>
+      <c r="H91" s="10"/>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="10">
         <v>91</v>
       </c>
-      <c r="B92" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C92" s="10"/>
-      <c r="D92" s="10"/>
-      <c r="E92" s="10">
-        <v>5</v>
-      </c>
-      <c r="F92" s="10"/>
-      <c r="G92" s="9"/>
-      <c r="H92" s="10"/>
+      <c r="B92" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D92" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E92" s="8"/>
+      <c r="F92" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H92" s="8"/>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="10">
         <v>92</v>
       </c>
-      <c r="B93" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D93" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E93" s="8"/>
-      <c r="F93" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G93" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H93" s="8"/>
+      <c r="B93" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10"/>
+      <c r="E93" s="10">
+        <v>10</v>
+      </c>
+      <c r="F93" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G93" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H93" s="10"/>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="10">
         <v>93</v>
       </c>
-      <c r="B94" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C94" s="10"/>
-      <c r="D94" s="10"/>
-      <c r="E94" s="10">
-        <v>10</v>
-      </c>
-      <c r="F94" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G94" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H94" s="10"/>
+      <c r="B94" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D94" s="11" t="s">
+        <v>199</v>
+      </c>
+      <c r="E94" s="8"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="7"/>
+      <c r="H94" s="8"/>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="10">
         <v>94</v>
       </c>
-      <c r="B95" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D95" s="11" t="s">
-        <v>201</v>
-      </c>
-      <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="8"/>
+      <c r="B95" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D95" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E95" s="10"/>
+      <c r="F95" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H95" s="10"/>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="10">
         <v>95</v>
       </c>
-      <c r="B96" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C96" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D96" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E96" s="10"/>
-      <c r="F96" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G96" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="H96" s="10"/>
+      <c r="B96" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C96" s="8"/>
+      <c r="D96" s="11"/>
+      <c r="E96" s="8">
+        <v>10</v>
+      </c>
+      <c r="F96" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G96" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H96" s="8"/>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="10">
         <v>96</v>
       </c>
-      <c r="B97" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C97" s="8"/>
-      <c r="D97" s="11"/>
-      <c r="E97" s="8">
-        <v>10</v>
-      </c>
-      <c r="F97" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G97" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H97" s="8"/>
+      <c r="B97" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D97" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="H97" s="10"/>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="10">
         <v>97</v>
       </c>
-      <c r="B98" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C98" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D98" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="E98" s="10"/>
-      <c r="F98" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="G98" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="H98" s="10"/>
+      <c r="B98" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C98" s="8"/>
+      <c r="D98" s="11"/>
+      <c r="E98" s="8">
+        <v>5</v>
+      </c>
+      <c r="F98" s="8"/>
+      <c r="G98" s="7"/>
+      <c r="H98" s="8"/>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="10">
         <v>98</v>
       </c>
-      <c r="B99" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C99" s="8"/>
-      <c r="D99" s="11"/>
-      <c r="E99" s="8">
-        <v>5</v>
-      </c>
-      <c r="F99" s="8"/>
-      <c r="G99" s="7"/>
-      <c r="H99" s="8"/>
+      <c r="B99" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D99" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H99" s="10"/>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="10">
         <v>99</v>
       </c>
-      <c r="B100" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C100" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D100" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="E100" s="10"/>
-      <c r="F100" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="G100" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="H100" s="10"/>
+      <c r="B100" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C100" s="8"/>
+      <c r="D100" s="11"/>
+      <c r="E100" s="8">
+        <v>10</v>
+      </c>
+      <c r="F100" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G100" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H100" s="8"/>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="10">
         <v>100</v>
       </c>
-      <c r="B101" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C101" s="8"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="8">
-        <v>10</v>
-      </c>
-      <c r="F101" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="G101" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="H101" s="8"/>
+      <c r="B101" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D101" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="E101" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="F101" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="G101" s="9" t="s">
+        <v>202</v>
+      </c>
+      <c r="H101" s="10"/>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="10">
         <v>101</v>
       </c>
-      <c r="B102" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D102" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="E102" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="F102" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="G102" s="9" t="s">
-        <v>204</v>
-      </c>
-      <c r="H102" s="10"/>
+      <c r="B102" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C102" s="8"/>
+      <c r="D102" s="11"/>
+      <c r="E102" s="8">
+        <v>5</v>
+      </c>
+      <c r="F102" s="8"/>
+      <c r="G102" s="7"/>
+      <c r="H102" s="8"/>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="10">
         <v>102</v>
       </c>
-      <c r="B103" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C103" s="8"/>
-      <c r="D103" s="11"/>
-      <c r="E103" s="8">
-        <v>5</v>
-      </c>
-      <c r="F103" s="8"/>
-      <c r="G103" s="7"/>
-      <c r="H103" s="8"/>
+      <c r="B103" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C103" s="10"/>
+      <c r="D103" s="10"/>
+      <c r="E103" s="10"/>
+      <c r="F103" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>204</v>
+      </c>
+      <c r="H103" s="10"/>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="10">
         <v>103</v>
       </c>
-      <c r="B104" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C104" s="10"/>
-      <c r="D104" s="10"/>
-      <c r="E104" s="10"/>
-      <c r="F104" s="10" t="s">
+      <c r="B104" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D104" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="G104" s="9" t="s">
+      <c r="E104" s="8"/>
+      <c r="F104" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="H104" s="10"/>
+      <c r="G104" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="H104" s="8"/>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="10">
         <v>104</v>
       </c>
-      <c r="B105" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C105" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D105" s="11" t="s">
+      <c r="B105" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D105" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="G105" s="9" t="s">
         <v>207</v>
       </c>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="G105" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="H105" s="8"/>
+      <c r="H105" s="10"/>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="10">
         <v>105</v>
       </c>
-      <c r="B106" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C106" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D106" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="E106" s="10"/>
-      <c r="F106" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="G106" s="9" t="s">
-        <v>209</v>
-      </c>
-      <c r="H106" s="10"/>
+      <c r="B106" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C106" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E106" s="8"/>
+      <c r="F106" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G106" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H106" s="8"/>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="10">
         <v>106</v>
       </c>
-      <c r="B107" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C107" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D107" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E107" s="8"/>
-      <c r="F107" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G107" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H107" s="8"/>
+      <c r="B107" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" s="10"/>
+      <c r="D107" s="10"/>
+      <c r="E107" s="10">
+        <v>10</v>
+      </c>
+      <c r="F107" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H107" s="10"/>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="10">
         <v>107</v>
       </c>
-      <c r="B108" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C108" s="10"/>
-      <c r="D108" s="10"/>
-      <c r="E108" s="10">
-        <v>10</v>
-      </c>
-      <c r="F108" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G108" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H108" s="10"/>
+      <c r="B108" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D108" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="E108" s="8"/>
+      <c r="F108" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G108" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H108" s="8"/>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="10">
         <v>108</v>
       </c>
-      <c r="B109" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D109" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="E109" s="8"/>
-      <c r="F109" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="G109" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="H109" s="8"/>
+      <c r="B109" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="10">
+        <v>5</v>
+      </c>
+      <c r="F109" s="10"/>
+      <c r="G109" s="9"/>
+      <c r="H109" s="10"/>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="10">
         <v>109</v>
       </c>
-      <c r="B110" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C110" s="10"/>
-      <c r="D110" s="10"/>
-      <c r="E110" s="10">
-        <v>5</v>
-      </c>
-      <c r="F110" s="10"/>
-      <c r="G110" s="9"/>
-      <c r="H110" s="10"/>
+      <c r="B110" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C110" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D110" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E110" s="8"/>
+      <c r="F110" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G110" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H110" s="8"/>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="10">
         <v>110</v>
       </c>
-      <c r="B111" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C111" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D111" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="E111" s="8"/>
-      <c r="F111" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="G111" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="H111" s="8"/>
+      <c r="B111" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C111" s="10"/>
+      <c r="D111" s="10"/>
+      <c r="E111" s="10">
+        <v>10</v>
+      </c>
+      <c r="F111" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H111" s="10"/>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="10">
         <v>111</v>
       </c>
-      <c r="B112" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C112" s="10"/>
-      <c r="D112" s="10"/>
-      <c r="E112" s="10">
-        <v>10</v>
-      </c>
-      <c r="F112" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G112" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="H112" s="10"/>
+      <c r="B112" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C112" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="E112" s="8"/>
+      <c r="F112" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="G112" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H112" s="8"/>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="10">
         <v>112</v>
       </c>
-      <c r="B113" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C113" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D113" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="E113" s="8"/>
-      <c r="F113" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="G113" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H113" s="8"/>
+      <c r="B113" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C113" s="10"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10">
+        <v>1</v>
+      </c>
+      <c r="F113" s="10"/>
+      <c r="G113" s="9"/>
+      <c r="H113" s="10"/>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="10">
         <v>113</v>
       </c>
-      <c r="B114" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C114" s="10"/>
-      <c r="D114" s="10"/>
-      <c r="E114" s="10">
-        <v>1</v>
-      </c>
-      <c r="F114" s="10"/>
-      <c r="G114" s="9"/>
-      <c r="H114" s="10"/>
+      <c r="B114" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D114" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="E114" s="8"/>
+      <c r="F114" s="8"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="8"/>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="10">
         <v>114</v>
       </c>
-      <c r="B115" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C115" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D115" s="11" t="s">
-        <v>213</v>
-      </c>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8"/>
-      <c r="G115" s="7"/>
-      <c r="H115" s="8"/>
+      <c r="B115" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" s="10"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10">
+        <v>1</v>
+      </c>
+      <c r="F115" s="10"/>
+      <c r="G115" s="9"/>
+      <c r="H115" s="10"/>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="10">
         <v>115</v>
       </c>
-      <c r="B116" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C116" s="10"/>
-      <c r="D116" s="10"/>
-      <c r="E116" s="10">
-        <v>1</v>
-      </c>
-      <c r="F116" s="10"/>
-      <c r="G116" s="9"/>
-      <c r="H116" s="10"/>
+      <c r="B116" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D116" s="11" t="s">
+        <v>212</v>
+      </c>
+      <c r="E116" s="8"/>
+      <c r="F116" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="G116" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="H116" s="8"/>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="10">
         <v>116</v>
       </c>
-      <c r="B117" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C117" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D117" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="E117" s="8"/>
-      <c r="F117" s="8" t="s">
+      <c r="B117" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C117" s="10"/>
+      <c r="D117" s="10"/>
+      <c r="E117" s="10">
+        <v>3</v>
+      </c>
+      <c r="F117" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="G117" s="7" t="s">
+      <c r="G117" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="H117" s="8"/>
+      <c r="H117" s="10"/>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="10">
         <v>117</v>
       </c>
-      <c r="B118" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C118" s="10"/>
-      <c r="D118" s="10"/>
-      <c r="E118" s="10">
-        <v>3</v>
-      </c>
-      <c r="F118" s="10" t="s">
+      <c r="B118" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C118" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D118" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="G118" s="9" t="s">
+      <c r="E118" s="8"/>
+      <c r="F118" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="H118" s="10"/>
+      <c r="G118" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H118" s="8"/>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="10">
         <v>118</v>
       </c>
-      <c r="B119" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C119" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D119" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="E119" s="8"/>
-      <c r="F119" s="8" t="s">
+      <c r="B119" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D119" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="G119" s="7" t="s">
+      <c r="E119" s="10"/>
+      <c r="F119" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="H119" s="8"/>
+      <c r="G119" s="9" t="s">
+        <v>222</v>
+      </c>
+      <c r="H119" s="10"/>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="10">
         <v>119</v>
       </c>
-      <c r="B120" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C120" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D120" s="10" t="s">
-        <v>222</v>
-      </c>
-      <c r="E120" s="10"/>
-      <c r="F120" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="G120" s="9" t="s">
-        <v>224</v>
-      </c>
-      <c r="H120" s="10"/>
+      <c r="B120" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C120" s="8"/>
+      <c r="D120" s="11"/>
+      <c r="E120" s="8">
+        <v>2</v>
+      </c>
+      <c r="F120" s="8"/>
+      <c r="G120" s="7"/>
+      <c r="H120" s="8"/>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="10">
         <v>120</v>
       </c>
-      <c r="B121" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C121" s="8"/>
-      <c r="D121" s="11"/>
-      <c r="E121" s="8">
-        <v>2</v>
-      </c>
-      <c r="F121" s="8"/>
-      <c r="G121" s="7"/>
-      <c r="H121" s="8"/>
+      <c r="B121" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D121" s="10" t="s">
+        <v>223</v>
+      </c>
+      <c r="E121" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="F121" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="G121" s="9" t="s">
+        <v>226</v>
+      </c>
+      <c r="H121" s="10"/>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="10">
         <v>121</v>
       </c>
-      <c r="B122" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C122" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D122" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="E122" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="F122" s="10" t="s">
+      <c r="B122" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="C122" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D122" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="G122" s="9" t="s">
+      <c r="E122" s="8" t="s">
         <v>228</v>
       </c>
-      <c r="H122" s="10"/>
+      <c r="F122" s="8" t="s">
+        <v>229</v>
+      </c>
+      <c r="G122" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="H122" s="8"/>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="10">
         <v>122</v>
       </c>
-      <c r="B123" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C123" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D123" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="E123" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="F123" s="8" t="s">
+      <c r="B123" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D123" s="10" t="s">
         <v>231</v>
       </c>
-      <c r="G123" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="H123" s="8"/>
+      <c r="E123" s="10">
+        <v>9889656446</v>
+      </c>
+      <c r="F123" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="G123" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="H123" s="10"/>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="10">
         <v>123</v>
       </c>
-      <c r="B124" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="C124" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="D124" s="10" t="s">
+      <c r="B124" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D124" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="E124" s="8"/>
+      <c r="F124" s="8" t="s">
         <v>233</v>
       </c>
-      <c r="E124" s="10">
-        <v>9889656446</v>
-      </c>
-      <c r="F124" s="10" t="s">
-        <v>147</v>
-      </c>
-      <c r="G124" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="H124" s="10"/>
+      <c r="G124" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="H124" s="8"/>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="10">
         <v>124</v>
       </c>
-      <c r="B125" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C125" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="D125" s="11" t="s">
-        <v>234</v>
-      </c>
-      <c r="E125" s="8"/>
-      <c r="F125" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="G125" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H125" s="8"/>
+      <c r="B125" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C125" s="10"/>
+      <c r="D125" s="10"/>
+      <c r="E125" s="10">
+        <v>10</v>
+      </c>
+      <c r="F125" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="G125" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H125" s="10"/>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="10">
         <v>125</v>
       </c>
-      <c r="B126" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C126" s="10"/>
-      <c r="D126" s="10"/>
-      <c r="E126" s="10">
-        <v>10</v>
-      </c>
-      <c r="F126" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G126" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="H126" s="10"/>
+      <c r="B126" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="D126" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="E126" s="8"/>
+      <c r="F126" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="G126" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="H126" s="8"/>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="10">
         <v>126</v>
       </c>
-      <c r="B127" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="C127" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D127" s="11" t="s">
-        <v>238</v>
-      </c>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="G127" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="H127" s="8"/>
-    </row>
-    <row r="128" spans="1:8">
-      <c r="A128" s="10">
-        <v>127</v>
-      </c>
-      <c r="B128" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="C128" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D128" s="10" t="s">
-        <v>241</v>
-      </c>
-      <c r="E128" s="10"/>
-      <c r="F128" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="G128" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="H128" s="10"/>
-    </row>
-    <row r="129" spans="1:8">
-      <c r="A129" s="10">
-        <v>128</v>
-      </c>
-      <c r="B129" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="C129" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D129" s="11" t="s">
-        <v>243</v>
-      </c>
-      <c r="E129" s="8"/>
-      <c r="F129" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="G129" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="H129" s="8"/>
-    </row>
-    <row r="130" spans="1:8">
-      <c r="A130" s="10">
-        <v>129</v>
-      </c>
-      <c r="B130" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="C130" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D130" s="10" t="s">
-        <v>245</v>
-      </c>
-      <c r="E130" s="10"/>
-      <c r="F130" s="10" t="s">
-        <v>246</v>
-      </c>
-      <c r="G130" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="H130" s="10"/>
-    </row>
-    <row r="131" spans="1:8">
-      <c r="A131" s="10">
-        <v>130</v>
-      </c>
-      <c r="B131" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="C131" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D131" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="E131" s="8"/>
-      <c r="F131" s="8" t="s">
-        <v>248</v>
-      </c>
-      <c r="G131" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="H131" s="8"/>
-    </row>
-    <row r="132" spans="1:8">
-      <c r="A132" s="10">
-        <v>131</v>
-      </c>
-      <c r="B132" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="C132" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D132" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="E132" s="10"/>
-      <c r="F132" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="G132" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="H132" s="10"/>
-    </row>
-    <row r="133" spans="1:8">
-      <c r="A133" s="10">
-        <v>132</v>
-      </c>
-      <c r="B133" s="8" t="s">
-        <v>237</v>
-      </c>
-      <c r="C133" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D133" s="11" t="s">
-        <v>251</v>
-      </c>
-      <c r="E133" s="8"/>
-      <c r="F133" s="8" t="s">
-        <v>252</v>
-      </c>
-      <c r="G133" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="H133" s="8"/>
-    </row>
-    <row r="134" spans="1:8">
-      <c r="A134" s="10">
-        <v>133</v>
-      </c>
-      <c r="B134" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="C134" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D134" s="10" t="s">
-        <v>253</v>
-      </c>
-      <c r="E134" s="10"/>
-      <c r="F134" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="G134" s="9" t="s">
-        <v>240</v>
-      </c>
-      <c r="H134" s="10"/>
-    </row>
-    <row r="135" spans="1:8">
-      <c r="A135" s="10">
-        <v>134</v>
-      </c>
-      <c r="B135" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="C135" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D135" s="11" t="s">
-        <v>255</v>
-      </c>
-      <c r="E135" s="8"/>
-      <c r="F135" s="8" t="s">
-        <v>256</v>
-      </c>
-      <c r="G135" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="H135" s="8"/>
-    </row>
-    <row r="136" spans="1:8">
-      <c r="A136" s="10">
-        <v>135</v>
-      </c>
-      <c r="B136" s="10" t="s">
+      <c r="B127" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="C136" s="10"/>
-      <c r="D136" s="10"/>
-      <c r="E136" s="10">
+      <c r="C127" s="10"/>
+      <c r="D127" s="10"/>
+      <c r="E127" s="10">
         <v>5</v>
       </c>
-      <c r="F136" s="10"/>
-      <c r="G136" s="9"/>
-      <c r="H136" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="9"/>
+      <c r="H127" s="10"/>
     </row>
   </sheetData>
   <dataValidations count="9">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1">
       <formula1>[2]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 B4:B13 B14:B15 B71:B73 C7:C9 C14:C15 C71:C73">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4 C5 C6 C10 C11 C12 C13 B4:B13 B14:B15 B70:B72 C7:C9 C14:C15 C70:C72">
       <formula1>[1]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B43 C43">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C32 C43 C46 C64 C68 C92 C95 C99 C110 C27:C31">
+      <formula1>[4]DataList!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42 C42">
       <formula1>[7]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C44 C47 C65 C69 C93 C96 C100 C111 C27:C33">
-      <formula1>[4]DataList!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B46 B47 B48 B49 B50 B51 B63 B67 B68 B75 B91 B92 B98 B99 B109 B110 B118 B119 B1:B3 B16:B36 B37:B42 B44:B45 B52:B53 B54:B62 B64:B66 B69:B70 B77:B90 B93:B94 B95:B97 B100:B101 B102:B106 B107:B108 B111:B112 B113:B116 B121:B136">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B45 B46 B47 B48 B49 B50 B62 B66 B67 B74 B90 B91 B97 B98 B108 B109 B117 B118 B1:B3 B16:B31 B32:B35 B36:B41 B43:B44 B51:B52 B53:B61 B63:B65 B68:B69 B76:B89 B92:B93 B94:B96 B99:B100 B101:B105 B106:B107 B110:B111 B112:B115 B120:B125 B126:B127">
       <formula1/>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B74 B76">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B73 B75">
       <formula1>[8]DataList!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C89">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C88">
       <formula1>[6]DataList!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3">
@@ -5232,28 +4973,28 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>258</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>259</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="C3" t="s">
-        <v>261</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -5261,506 +5002,506 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>263</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="C6" t="s">
-        <v>265</v>
+        <v>245</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="C8" t="s">
-        <v>268</v>
+        <v>248</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>269</v>
+        <v>249</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>272</v>
+        <v>252</v>
       </c>
       <c r="C10" t="s">
-        <v>273</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>274</v>
+        <v>254</v>
       </c>
       <c r="C11" t="s">
-        <v>275</v>
+        <v>255</v>
       </c>
     </row>
     <row r="12" spans="3:3">
       <c r="C12" t="s">
-        <v>276</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="3:3">
       <c r="C13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="14" spans="3:3">
       <c r="C14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="3:3">
       <c r="C15" t="s">
-        <v>277</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="3:3">
       <c r="C16" t="s">
-        <v>278</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="3:3">
       <c r="C18" t="s">
-        <v>279</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="3:3">
       <c r="C19" t="s">
-        <v>280</v>
+        <v>260</v>
       </c>
     </row>
     <row r="20" spans="3:3">
       <c r="C20" t="s">
-        <v>281</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="3:3">
       <c r="C21" t="s">
-        <v>237</v>
+        <v>262</v>
       </c>
     </row>
     <row r="22" spans="3:3">
       <c r="C22" t="s">
-        <v>282</v>
+        <v>263</v>
       </c>
     </row>
     <row r="23" spans="3:4">
       <c r="C23" s="2" t="s">
-        <v>283</v>
+        <v>264</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="3:3">
       <c r="C24" t="s">
-        <v>284</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="3:3">
       <c r="C25" t="s">
-        <v>285</v>
+        <v>266</v>
       </c>
     </row>
     <row r="26" spans="3:3">
       <c r="C26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="3:3">
       <c r="C27" t="s">
-        <v>286</v>
+        <v>267</v>
       </c>
     </row>
     <row r="28" spans="3:3">
       <c r="C28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="3:3">
       <c r="C29" t="s">
-        <v>287</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="3:3">
       <c r="C30" t="s">
-        <v>288</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31" spans="3:3">
       <c r="C31" t="s">
-        <v>289</v>
+        <v>270</v>
       </c>
     </row>
     <row r="32" spans="3:3">
       <c r="C32" t="s">
-        <v>290</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33" spans="3:3">
       <c r="C33" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
     </row>
     <row r="34" spans="3:3">
       <c r="C34" t="s">
-        <v>292</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35" spans="3:3">
       <c r="C35" t="s">
-        <v>293</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" spans="3:3">
       <c r="C36" t="s">
-        <v>294</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37" spans="3:3">
       <c r="C37" t="s">
-        <v>295</v>
+        <v>276</v>
       </c>
     </row>
     <row r="38" spans="3:3">
       <c r="C38" t="s">
-        <v>296</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="3:3">
       <c r="C39" t="s">
-        <v>297</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40" spans="3:3">
       <c r="C40" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="3:3">
       <c r="C41" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
     </row>
     <row r="42" spans="3:3">
       <c r="C42" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43" spans="3:3">
       <c r="C43" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
     </row>
     <row r="44" spans="3:3">
       <c r="C44" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
     </row>
     <row r="45" spans="3:3">
       <c r="C45" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
     </row>
     <row r="46" spans="3:3">
       <c r="C46" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
     </row>
     <row r="50" spans="3:3">
       <c r="C50" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
     </row>
     <row r="53" spans="3:3">
       <c r="C53" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
     </row>
     <row r="54" spans="3:3">
       <c r="C54" t="s">
-        <v>312</v>
+        <v>293</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
     </row>
     <row r="58" spans="3:3">
       <c r="C58" t="s">
-        <v>316</v>
+        <v>297</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>317</v>
+        <v>298</v>
       </c>
     </row>
     <row r="61" spans="3:3">
       <c r="C61" t="s">
-        <v>318</v>
+        <v>299</v>
       </c>
     </row>
     <row r="62" spans="3:3">
       <c r="C62" t="s">
-        <v>319</v>
+        <v>300</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>320</v>
+        <v>301</v>
       </c>
     </row>
     <row r="64" spans="3:3">
       <c r="C64" t="s">
-        <v>321</v>
+        <v>302</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>322</v>
+        <v>303</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>323</v>
+        <v>304</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>324</v>
+        <v>305</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>325</v>
+        <v>306</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>326</v>
+        <v>307</v>
       </c>
     </row>
     <row r="71" spans="3:4">
       <c r="C71" s="2" t="s">
-        <v>327</v>
+        <v>308</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
     </row>
     <row r="73" spans="3:4">
       <c r="C73" s="2" t="s">
-        <v>329</v>
+        <v>310</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>330</v>
+        <v>311</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>331</v>
+        <v>312</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>333</v>
+        <v>314</v>
       </c>
     </row>
     <row r="78" spans="3:4">
       <c r="C78" s="2" t="s">
-        <v>334</v>
+        <v>315</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
     </row>
     <row r="79" spans="3:4">
       <c r="C79" s="2" t="s">
-        <v>335</v>
+        <v>316</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>271</v>
+        <v>251</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>336</v>
+        <v>317</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>337</v>
+        <v>318</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>342</v>
+        <v>323</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>344</v>
+        <v>325</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>345</v>
+        <v>326</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>346</v>
+        <v>327</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>347</v>
+        <v>328</v>
       </c>
     </row>
     <row r="92" spans="3:3">
       <c r="C92" t="s">
-        <v>348</v>
+        <v>329</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>349</v>
+        <v>330</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>350</v>
+        <v>331</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>351</v>
+        <v>332</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" s="3" t="s">
-        <v>352</v>
+        <v>333</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>353</v>
+        <v>334</v>
       </c>
     </row>
     <row r="98" spans="3:3">
@@ -5775,7 +5516,7 @@
     </row>
     <row r="100" spans="3:3">
       <c r="C100" t="s">
-        <v>354</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
